--- a/doc/correlation-matrix-grouped.xlsx
+++ b/doc/correlation-matrix-grouped.xlsx
@@ -149,6 +149,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FED884"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FEE999"/>
       </patternFill>
     </fill>
@@ -199,6 +204,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FEE695"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FEE491"/>
       </patternFill>
     </fill>
@@ -214,32 +224,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FEFFBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF5AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6F59D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF8B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAFDB8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ECF7A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2FAAE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBFDBA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEF8A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A50026"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FED481"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF1A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FECE7C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FDFEBC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF5AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E6F59D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF8B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEFFBE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEE695"/>
+        <fgColor rgb="00F7814C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C3E67D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9EF8B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDC574"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEDE89"/>
       </patternFill>
     </fill>
     <fill>
@@ -249,91 +324,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAFDB8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ECF7A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEDE89"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F2FAAE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBFDBA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EEF8A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FED884"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A50026"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FED481"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF1A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FECE7C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7814C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C3E67D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDF191"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDC574"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00B9E176"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9EF8B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FED27F"/>
       </patternFill>
     </fill>
@@ -344,157 +339,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FCAA5F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FDB365"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FDB163"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAF08D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDC171"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4FAB0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C9E881"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C5E67E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBF7A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FECA79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C1E57B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FECC7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDBB6C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDC776"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7FCB4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5F49B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3EC87"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7EE8A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5ED88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDB96A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F67C4A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F67A49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F57245"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDBF6F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7E77F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0F295"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000E8245"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00108647"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0007753E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098D368"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FCA85E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FDB163"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DAF08D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDC171"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F4FAB0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C9E881"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C7E77F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EBF7A3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C1E57B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FECC7B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDBB6C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDC776"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FCB4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5F49B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DCF08F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDB96A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBA35C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8864F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDC372"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0F295"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00108647"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00118848"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D1EC86"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FDBD6D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0008773F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5ED88"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FECA79"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CFEB85"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9F6A1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0098D368"/>
       </patternFill>
     </fill>
     <fill>
@@ -571,14 +571,14 @@
     <xf numFmtId="0" fontId="3" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -604,16 +604,16 @@
     <xf numFmtId="0" fontId="3" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1225,7 +1225,7 @@
         <v>-0.07469454464548468</v>
       </c>
       <c r="Q2" s="16" t="n">
-        <v>0.1536698842756647</v>
+        <v>0.1575542520339424</v>
       </c>
       <c r="R2" s="17" t="n">
         <v>0.0004037482551208054</v>
@@ -1252,30 +1252,30 @@
         <v>-0.02870990100466269</v>
       </c>
       <c r="Z2" s="22" t="n">
-        <v>-0.1397908509473057</v>
-      </c>
-      <c r="AA2" s="22" t="n">
-        <v>-0.1384301236851926</v>
+        <v>-0.1404469928295471</v>
+      </c>
+      <c r="AA2" s="23" t="n">
+        <v>-0.13463032761303</v>
       </c>
       <c r="AB2" s="19" t="n">
-        <v>-0.1193089587898973</v>
-      </c>
-      <c r="AC2" s="23" t="n">
+        <v>-0.1204557132266749</v>
+      </c>
+      <c r="AC2" s="24" t="n">
         <v>-0.05319675520777106</v>
       </c>
-      <c r="AD2" s="24" t="n">
+      <c r="AD2" s="25" t="n">
         <v>-0.03884263164299523</v>
       </c>
-      <c r="AE2" s="25" t="n">
+      <c r="AE2" s="26" t="n">
         <v>0.04797221814471418</v>
       </c>
-      <c r="AF2" s="26" t="n">
+      <c r="AF2" s="27" t="n">
         <v>-0.09560278246831845</v>
       </c>
-      <c r="AG2" s="27" t="n">
+      <c r="AG2" s="28" t="n">
         <v>-0.01817384877830079</v>
       </c>
-      <c r="AH2" s="28" t="n">
+      <c r="AH2" s="29" t="n">
         <v>-0.1264684737893425</v>
       </c>
       <c r="AI2" s="20" t="n">
@@ -1284,7 +1284,7 @@
       <c r="AJ2" s="16" t="n">
         <v>0.1561211908344278</v>
       </c>
-      <c r="AK2" s="29" t="n">
+      <c r="AK2" s="30" t="n">
         <v>-0.01417044712107343</v>
       </c>
     </row>
@@ -1300,10 +1300,10 @@
       <c r="C3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="30" t="n">
+      <c r="D3" s="31" t="n">
         <v>-0.1889010126175497</v>
       </c>
-      <c r="E3" s="31" t="n">
+      <c r="E3" s="32" t="n">
         <v>-0.2854003149618816</v>
       </c>
       <c r="F3" s="13" t="n">
@@ -1318,16 +1318,16 @@
       <c r="I3" s="22" t="n">
         <v>-0.1408238879620746</v>
       </c>
-      <c r="J3" s="25" t="n">
+      <c r="J3" s="26" t="n">
         <v>0.04972648415258268</v>
       </c>
       <c r="K3" s="17" t="n">
         <v>0.004349332484947553</v>
       </c>
-      <c r="L3" s="32" t="n">
+      <c r="L3" s="33" t="n">
         <v>-0.1628168365309454</v>
       </c>
-      <c r="M3" s="29" t="n">
+      <c r="M3" s="30" t="n">
         <v>-0.01348148713876911</v>
       </c>
       <c r="N3" s="12" t="n">
@@ -1336,22 +1336,22 @@
       <c r="O3" s="22" t="n">
         <v>-0.1425024699913743</v>
       </c>
-      <c r="P3" s="29" t="n">
+      <c r="P3" s="30" t="n">
         <v>-0.007879641056983187</v>
       </c>
-      <c r="Q3" s="33" t="n">
-        <v>-0.07915958427053797</v>
-      </c>
-      <c r="R3" s="33" t="n">
+      <c r="Q3" s="34" t="n">
+        <v>-0.07071658745619185</v>
+      </c>
+      <c r="R3" s="35" t="n">
         <v>-0.08186634036297556</v>
       </c>
-      <c r="S3" s="24" t="n">
+      <c r="S3" s="25" t="n">
         <v>-0.04105909388751948</v>
       </c>
-      <c r="T3" s="34" t="n">
+      <c r="T3" s="36" t="n">
         <v>0.05848745466535017</v>
       </c>
-      <c r="U3" s="35" t="n">
+      <c r="U3" s="37" t="n">
         <v>0.07122378602372519</v>
       </c>
       <c r="V3" s="17" t="n">
@@ -1363,22 +1363,22 @@
       <c r="X3" s="20" t="n">
         <v>-0.03096992940874325</v>
       </c>
-      <c r="Y3" s="34" t="n">
+      <c r="Y3" s="36" t="n">
         <v>0.06323787727343431</v>
       </c>
-      <c r="Z3" s="36" t="n">
-        <v>0.09250008656069825</v>
-      </c>
-      <c r="AA3" s="36" t="n">
-        <v>0.09095791687584819</v>
-      </c>
-      <c r="AB3" s="36" t="n">
-        <v>0.0892100246652307</v>
-      </c>
-      <c r="AC3" s="35" t="n">
+      <c r="Z3" s="38" t="n">
+        <v>0.08591049446186118</v>
+      </c>
+      <c r="AA3" s="11" t="n">
+        <v>0.07560431084715355</v>
+      </c>
+      <c r="AB3" s="38" t="n">
+        <v>0.0821074106937954</v>
+      </c>
+      <c r="AC3" s="37" t="n">
         <v>0.06561904078650124</v>
       </c>
-      <c r="AD3" s="37" t="n">
+      <c r="AD3" s="39" t="n">
         <v>0.01563549780651798</v>
       </c>
       <c r="AE3" s="13" t="n">
@@ -1390,16 +1390,16 @@
       <c r="AG3" s="12" t="n">
         <v>0.03426869896713545</v>
       </c>
-      <c r="AH3" s="27" t="n">
+      <c r="AH3" s="28" t="n">
         <v>-0.0210207540157463</v>
       </c>
-      <c r="AI3" s="27" t="n">
+      <c r="AI3" s="28" t="n">
         <v>-0.01744573627338424</v>
       </c>
       <c r="AJ3" s="18" t="n">
         <v>-0.08835923546117749</v>
       </c>
-      <c r="AK3" s="35" t="n">
+      <c r="AK3" s="37" t="n">
         <v>0.07008249538536045</v>
       </c>
     </row>
@@ -1412,34 +1412,34 @@
       <c r="B4" s="4" t="n">
         <v>-0.3155694494049945</v>
       </c>
-      <c r="C4" s="30" t="n">
+      <c r="C4" s="31" t="n">
         <v>-0.1889010126175497</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="30" t="n">
+      <c r="E4" s="31" t="n">
         <v>-0.1870841041150384</v>
       </c>
       <c r="F4" s="12" t="n">
         <v>0.03538586982107916</v>
       </c>
-      <c r="G4" s="37" t="n">
+      <c r="G4" s="39" t="n">
         <v>0.01881440572003511</v>
       </c>
-      <c r="H4" s="26" t="n">
+      <c r="H4" s="27" t="n">
         <v>-0.09413095286706655</v>
       </c>
-      <c r="I4" s="38" t="n">
+      <c r="I4" s="40" t="n">
         <v>0.2010356207742532</v>
       </c>
-      <c r="J4" s="39" t="n">
+      <c r="J4" s="41" t="n">
         <v>0.0374648575855217</v>
       </c>
-      <c r="K4" s="29" t="n">
+      <c r="K4" s="30" t="n">
         <v>-0.01122156254193901</v>
       </c>
-      <c r="L4" s="40" t="n">
+      <c r="L4" s="38" t="n">
         <v>0.08509396153899361</v>
       </c>
       <c r="M4" s="12" t="n">
@@ -1448,22 +1448,22 @@
       <c r="N4" s="9" t="n">
         <v>-0.0644864037416804</v>
       </c>
-      <c r="O4" s="25" t="n">
+      <c r="O4" s="26" t="n">
         <v>0.04816046122269663</v>
       </c>
       <c r="P4" s="18" t="n">
         <v>-0.09311643970632129</v>
       </c>
-      <c r="Q4" s="17" t="n">
-        <v>0.007052175021839486</v>
-      </c>
-      <c r="R4" s="33" t="n">
+      <c r="Q4" s="39" t="n">
+        <v>0.02067209125325885</v>
+      </c>
+      <c r="R4" s="35" t="n">
         <v>-0.08120024323604876</v>
       </c>
       <c r="S4" s="6" t="n">
         <v>0.01054162883316315</v>
       </c>
-      <c r="T4" s="41" t="n">
+      <c r="T4" s="34" t="n">
         <v>-0.06579245500777016</v>
       </c>
       <c r="U4" s="5" t="n">
@@ -1475,28 +1475,28 @@
       <c r="W4" s="6" t="n">
         <v>0.007368599158673527</v>
       </c>
-      <c r="X4" s="27" t="n">
+      <c r="X4" s="28" t="n">
         <v>-0.01489513082743957</v>
       </c>
-      <c r="Y4" s="33" t="n">
+      <c r="Y4" s="35" t="n">
         <v>-0.080063687907868</v>
       </c>
-      <c r="Z4" s="42" t="n">
-        <v>-0.1051938890496072</v>
-      </c>
-      <c r="AA4" s="42" t="n">
-        <v>-0.1006984688584487</v>
-      </c>
-      <c r="AB4" s="28" t="n">
-        <v>-0.1250009297624394</v>
+      <c r="Z4" s="27" t="n">
+        <v>-0.09676463072052433</v>
+      </c>
+      <c r="AA4" s="27" t="n">
+        <v>-0.09905952160715378</v>
+      </c>
+      <c r="AB4" s="29" t="n">
+        <v>-0.1233650298512508</v>
       </c>
       <c r="AC4" s="20" t="n">
         <v>-0.03045339380698759</v>
       </c>
-      <c r="AD4" s="43" t="n">
+      <c r="AD4" s="42" t="n">
         <v>0.1074719240568926</v>
       </c>
-      <c r="AE4" s="27" t="n">
+      <c r="AE4" s="28" t="n">
         <v>-0.02037611693636415</v>
       </c>
       <c r="AF4" s="13" t="n">
@@ -1505,13 +1505,13 @@
       <c r="AG4" s="10" t="n">
         <v>0.02497215932796824</v>
       </c>
-      <c r="AH4" s="37" t="n">
+      <c r="AH4" s="39" t="n">
         <v>0.0151959161384113</v>
       </c>
-      <c r="AI4" s="25" t="n">
+      <c r="AI4" s="26" t="n">
         <v>0.04710799131334617</v>
       </c>
-      <c r="AJ4" s="39" t="n">
+      <c r="AJ4" s="41" t="n">
         <v>0.04273256507369141</v>
       </c>
       <c r="AK4" s="18" t="n">
@@ -1527,10 +1527,10 @@
       <c r="B5" s="3" t="n">
         <v>-0.4767767996822571</v>
       </c>
-      <c r="C5" s="31" t="n">
+      <c r="C5" s="32" t="n">
         <v>-0.2854003149618816</v>
       </c>
-      <c r="D5" s="30" t="n">
+      <c r="D5" s="31" t="n">
         <v>-0.1870841041150384</v>
       </c>
       <c r="E5" s="2" t="n">
@@ -1545,10 +1545,10 @@
       <c r="H5" s="20" t="n">
         <v>-0.02927846059317276</v>
       </c>
-      <c r="I5" s="32" t="n">
+      <c r="I5" s="33" t="n">
         <v>-0.1610367745528993</v>
       </c>
-      <c r="J5" s="29" t="n">
+      <c r="J5" s="30" t="n">
         <v>-0.009104846720487983</v>
       </c>
       <c r="K5" s="13" t="n">
@@ -1557,76 +1557,76 @@
       <c r="L5" s="17" t="n">
         <v>0.006878021428012145</v>
       </c>
-      <c r="M5" s="23" t="n">
+      <c r="M5" s="24" t="n">
         <v>-0.05427592104283972</v>
       </c>
-      <c r="N5" s="39" t="n">
+      <c r="N5" s="41" t="n">
         <v>0.03881032780156882</v>
       </c>
-      <c r="O5" s="41" t="n">
+      <c r="O5" s="34" t="n">
         <v>-0.06720874112778236</v>
       </c>
-      <c r="P5" s="44" t="n">
+      <c r="P5" s="43" t="n">
         <v>0.1678355367592739</v>
       </c>
-      <c r="Q5" s="45" t="n">
-        <v>-0.110017003911319</v>
-      </c>
-      <c r="R5" s="46" t="n">
+      <c r="Q5" s="23" t="n">
+        <v>-0.1334522855663292</v>
+      </c>
+      <c r="R5" s="44" t="n">
         <v>0.1431637580519421</v>
       </c>
-      <c r="S5" s="35" t="n">
+      <c r="S5" s="37" t="n">
         <v>0.06688905771159355</v>
       </c>
-      <c r="T5" s="47" t="n">
+      <c r="T5" s="45" t="n">
         <v>0.09484073732654442</v>
       </c>
-      <c r="U5" s="43" t="n">
+      <c r="U5" s="42" t="n">
         <v>0.1051130931793072</v>
       </c>
-      <c r="V5" s="24" t="n">
+      <c r="V5" s="25" t="n">
         <v>-0.04219169495262695</v>
       </c>
       <c r="W5" s="10" t="n">
         <v>0.02392416879998962</v>
       </c>
-      <c r="X5" s="26" t="n">
+      <c r="X5" s="27" t="n">
         <v>-0.09509768961553364</v>
       </c>
       <c r="Y5" s="12" t="n">
         <v>0.03133131050396407</v>
       </c>
       <c r="Z5" s="16" t="n">
-        <v>0.154162779266821</v>
-      </c>
-      <c r="AA5" s="16" t="n">
-        <v>0.1515770449047919</v>
-      </c>
-      <c r="AB5" s="14" t="n">
-        <v>0.1489900332888015</v>
-      </c>
-      <c r="AC5" s="37" t="n">
+        <v>0.1551441296215024</v>
+      </c>
+      <c r="AA5" s="46" t="n">
+        <v>0.1602643042123492</v>
+      </c>
+      <c r="AB5" s="16" t="n">
+        <v>0.1550893934001631</v>
+      </c>
+      <c r="AC5" s="39" t="n">
         <v>0.02082436484938562</v>
       </c>
-      <c r="AD5" s="23" t="n">
+      <c r="AD5" s="24" t="n">
         <v>-0.05032773104377516</v>
       </c>
-      <c r="AE5" s="29" t="n">
+      <c r="AE5" s="30" t="n">
         <v>-0.01405167113222911</v>
       </c>
-      <c r="AF5" s="43" t="n">
+      <c r="AF5" s="42" t="n">
         <v>0.1075716329104425</v>
       </c>
       <c r="AG5" s="20" t="n">
         <v>-0.03152440302282658</v>
       </c>
-      <c r="AH5" s="48" t="n">
+      <c r="AH5" s="46" t="n">
         <v>0.1613113391285409</v>
       </c>
       <c r="AI5" s="10" t="n">
         <v>0.02192465588666748</v>
       </c>
-      <c r="AJ5" s="49" t="n">
+      <c r="AJ5" s="23" t="n">
         <v>-0.1306610980530015</v>
       </c>
       <c r="AK5" s="6" t="n">
@@ -1654,43 +1654,43 @@
       <c r="F6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="50" t="n">
+      <c r="G6" s="47" t="n">
         <v>-0.8414341367962729</v>
       </c>
-      <c r="H6" s="51" t="n">
+      <c r="H6" s="48" t="n">
         <v>-0.1463568899402456</v>
       </c>
-      <c r="I6" s="40" t="n">
+      <c r="I6" s="38" t="n">
         <v>0.08193256650572661</v>
       </c>
-      <c r="J6" s="37" t="n">
+      <c r="J6" s="39" t="n">
         <v>0.02003059548090442</v>
       </c>
-      <c r="K6" s="28" t="n">
+      <c r="K6" s="29" t="n">
         <v>-0.1281823208777396</v>
       </c>
-      <c r="L6" s="52" t="n">
+      <c r="L6" s="49" t="n">
         <v>-0.0006999010786870073</v>
       </c>
       <c r="M6" s="10" t="n">
         <v>0.02301232801403728</v>
       </c>
-      <c r="N6" s="53" t="n">
+      <c r="N6" s="50" t="n">
         <v>-0.1656568835146871</v>
       </c>
-      <c r="O6" s="37" t="n">
+      <c r="O6" s="39" t="n">
         <v>0.0165881124987083</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>0.01254635703755115</v>
       </c>
-      <c r="Q6" s="18" t="n">
-        <v>-0.09102210742280839</v>
-      </c>
-      <c r="R6" s="27" t="n">
+      <c r="Q6" s="34" t="n">
+        <v>-0.06610675662842273</v>
+      </c>
+      <c r="R6" s="28" t="n">
         <v>-0.01739555100281657</v>
       </c>
-      <c r="S6" s="24" t="n">
+      <c r="S6" s="25" t="n">
         <v>-0.04289602132925465</v>
       </c>
       <c r="T6" s="10" t="n">
@@ -1702,7 +1702,7 @@
       <c r="V6" s="15" t="n">
         <v>-0.07600664132572943</v>
       </c>
-      <c r="W6" s="37" t="n">
+      <c r="W6" s="39" t="n">
         <v>0.01641708452075031</v>
       </c>
       <c r="X6" s="20" t="n">
@@ -1711,16 +1711,16 @@
       <c r="Y6" s="18" t="n">
         <v>-0.08630744509350671</v>
       </c>
-      <c r="Z6" s="11" t="n">
-        <v>0.07551199316612175</v>
-      </c>
-      <c r="AA6" s="34" t="n">
-        <v>0.05951176262694059</v>
-      </c>
-      <c r="AB6" s="7" t="n">
-        <v>0.05679021937908581</v>
-      </c>
-      <c r="AC6" s="52" t="n">
+      <c r="Z6" s="51" t="n">
+        <v>0.08835367844930647</v>
+      </c>
+      <c r="AA6" s="11" t="n">
+        <v>0.0740209387539907</v>
+      </c>
+      <c r="AB6" s="11" t="n">
+        <v>0.07660559821565673</v>
+      </c>
+      <c r="AC6" s="49" t="n">
         <v>-0.001677441937244176</v>
       </c>
       <c r="AD6" s="17" t="n">
@@ -1729,19 +1729,19 @@
       <c r="AE6" s="20" t="n">
         <v>-0.03467611850237754</v>
       </c>
-      <c r="AF6" s="27" t="n">
+      <c r="AF6" s="28" t="n">
         <v>-0.01696718787009348</v>
       </c>
-      <c r="AG6" s="23" t="n">
+      <c r="AG6" s="24" t="n">
         <v>-0.05206685197948083</v>
       </c>
       <c r="AH6" s="7" t="n">
         <v>0.05581713771818508</v>
       </c>
-      <c r="AI6" s="25" t="n">
+      <c r="AI6" s="26" t="n">
         <v>0.05047449543282782</v>
       </c>
-      <c r="AJ6" s="27" t="n">
+      <c r="AJ6" s="28" t="n">
         <v>-0.01425354324863028</v>
       </c>
       <c r="AK6" s="20" t="n">
@@ -1760,61 +1760,61 @@
       <c r="C7" s="17" t="n">
         <v>0.007185410221245846</v>
       </c>
-      <c r="D7" s="37" t="n">
+      <c r="D7" s="39" t="n">
         <v>0.01881440572003511</v>
       </c>
       <c r="E7" s="20" t="n">
         <v>-0.03326626994726353</v>
       </c>
-      <c r="F7" s="50" t="n">
+      <c r="F7" s="47" t="n">
         <v>-0.8414341367962729</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="54" t="n">
+      <c r="H7" s="52" t="n">
         <v>-0.4113913335133146</v>
       </c>
-      <c r="I7" s="41" t="n">
+      <c r="I7" s="34" t="n">
         <v>-0.06815946943416874</v>
       </c>
-      <c r="J7" s="29" t="n">
+      <c r="J7" s="30" t="n">
         <v>-0.01030987611738905</v>
       </c>
-      <c r="K7" s="41" t="n">
+      <c r="K7" s="34" t="n">
         <v>-0.06929529870337249</v>
       </c>
-      <c r="L7" s="27" t="n">
+      <c r="L7" s="28" t="n">
         <v>-0.0191620034763857</v>
       </c>
       <c r="M7" s="13" t="n">
         <v>-0.02512561483738183</v>
       </c>
-      <c r="N7" s="40" t="n">
+      <c r="N7" s="38" t="n">
         <v>0.08307706045292439</v>
       </c>
-      <c r="O7" s="41" t="n">
+      <c r="O7" s="34" t="n">
         <v>-0.0662060445532625</v>
       </c>
-      <c r="P7" s="29" t="n">
+      <c r="P7" s="30" t="n">
         <v>-0.01246459572936387</v>
       </c>
-      <c r="Q7" s="5" t="n">
-        <v>-0.04859192229884469</v>
-      </c>
-      <c r="R7" s="39" t="n">
+      <c r="Q7" s="35" t="n">
+        <v>-0.08436559785222759</v>
+      </c>
+      <c r="R7" s="41" t="n">
         <v>0.03623968657485985</v>
       </c>
-      <c r="S7" s="36" t="n">
+      <c r="S7" s="51" t="n">
         <v>0.08809075969940416</v>
       </c>
-      <c r="T7" s="36" t="n">
+      <c r="T7" s="51" t="n">
         <v>0.09025320205200718</v>
       </c>
-      <c r="U7" s="27" t="n">
+      <c r="U7" s="28" t="n">
         <v>-0.0163587048834059</v>
       </c>
-      <c r="V7" s="29" t="n">
+      <c r="V7" s="30" t="n">
         <v>-0.009252968344732033</v>
       </c>
       <c r="W7" s="10" t="n">
@@ -1823,40 +1823,40 @@
       <c r="X7" s="12" t="n">
         <v>0.03082326767278609</v>
       </c>
-      <c r="Y7" s="52" t="n">
+      <c r="Y7" s="49" t="n">
         <v>-0.00338504652390165</v>
       </c>
-      <c r="Z7" s="17" t="n">
-        <v>0.003713942307646434</v>
-      </c>
-      <c r="AA7" s="17" t="n">
-        <v>0.002372757896205239</v>
-      </c>
-      <c r="AB7" s="52" t="n">
-        <v>-0.001321712071493832</v>
+      <c r="Z7" s="30" t="n">
+        <v>-0.007397984999315249</v>
+      </c>
+      <c r="AA7" s="30" t="n">
+        <v>-0.007850737511261793</v>
+      </c>
+      <c r="AB7" s="28" t="n">
+        <v>-0.01589687071039914</v>
       </c>
       <c r="AC7" s="13" t="n">
         <v>-0.0238826140139408</v>
       </c>
-      <c r="AD7" s="27" t="n">
+      <c r="AD7" s="28" t="n">
         <v>-0.01882815668735123</v>
       </c>
-      <c r="AE7" s="37" t="n">
+      <c r="AE7" s="39" t="n">
         <v>0.01707077062479034</v>
       </c>
       <c r="AF7" s="11" t="n">
         <v>0.07393831374257574</v>
       </c>
-      <c r="AG7" s="40" t="n">
+      <c r="AG7" s="38" t="n">
         <v>0.08645693573987999</v>
       </c>
-      <c r="AH7" s="27" t="n">
+      <c r="AH7" s="28" t="n">
         <v>-0.01705216112101563</v>
       </c>
       <c r="AI7" s="6" t="n">
         <v>0.01424268199081677</v>
       </c>
-      <c r="AJ7" s="29" t="n">
+      <c r="AJ7" s="30" t="n">
         <v>-0.01202092871017706</v>
       </c>
       <c r="AK7" s="20" t="n">
@@ -1875,31 +1875,31 @@
       <c r="C8" s="12" t="n">
         <v>0.03292585851460478</v>
       </c>
-      <c r="D8" s="26" t="n">
+      <c r="D8" s="27" t="n">
         <v>-0.09413095286706655</v>
       </c>
       <c r="E8" s="20" t="n">
         <v>-0.02927846059317276</v>
       </c>
-      <c r="F8" s="51" t="n">
+      <c r="F8" s="48" t="n">
         <v>-0.1463568899402456</v>
       </c>
-      <c r="G8" s="54" t="n">
+      <c r="G8" s="52" t="n">
         <v>-0.4113913335133146</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="29" t="n">
+      <c r="I8" s="30" t="n">
         <v>-0.01342187765610243</v>
       </c>
-      <c r="J8" s="27" t="n">
+      <c r="J8" s="28" t="n">
         <v>-0.01491266856608393</v>
       </c>
-      <c r="K8" s="55" t="n">
+      <c r="K8" s="53" t="n">
         <v>0.3430715259411314</v>
       </c>
-      <c r="L8" s="39" t="n">
+      <c r="L8" s="41" t="n">
         <v>0.03626028297783671</v>
       </c>
       <c r="M8" s="17" t="n">
@@ -1908,22 +1908,22 @@
       <c r="N8" s="8" t="n">
         <v>0.1273354647991238</v>
       </c>
-      <c r="O8" s="36" t="n">
+      <c r="O8" s="51" t="n">
         <v>0.09322262165185255</v>
       </c>
       <c r="P8" s="17" t="n">
         <v>0.001656095831687403</v>
       </c>
-      <c r="Q8" s="56" t="n">
-        <v>0.2424895531539729</v>
-      </c>
-      <c r="R8" s="24" t="n">
+      <c r="Q8" s="54" t="n">
+        <v>0.2659538188042782</v>
+      </c>
+      <c r="R8" s="25" t="n">
         <v>-0.03700150926867152</v>
       </c>
       <c r="S8" s="18" t="n">
         <v>-0.08891157086682233</v>
       </c>
-      <c r="T8" s="57" t="n">
+      <c r="T8" s="55" t="n">
         <v>-0.2076898261838422</v>
       </c>
       <c r="U8" s="10" t="n">
@@ -1941,16 +1941,16 @@
       <c r="Y8" s="16" t="n">
         <v>0.1517771941961193</v>
       </c>
-      <c r="Z8" s="49" t="n">
-        <v>-0.1330013850052902</v>
-      </c>
-      <c r="AA8" s="42" t="n">
-        <v>-0.1031359105043293</v>
-      </c>
-      <c r="AB8" s="18" t="n">
-        <v>-0.09166901108966168</v>
-      </c>
-      <c r="AC8" s="25" t="n">
+      <c r="Z8" s="23" t="n">
+        <v>-0.1354883017868564</v>
+      </c>
+      <c r="AA8" s="56" t="n">
+        <v>-0.1104835143908107</v>
+      </c>
+      <c r="AB8" s="27" t="n">
+        <v>-0.1001132356174426</v>
+      </c>
+      <c r="AC8" s="26" t="n">
         <v>0.04655114415707027</v>
       </c>
       <c r="AD8" s="10" t="n">
@@ -1959,19 +1959,19 @@
       <c r="AE8" s="10" t="n">
         <v>0.02723908554549078</v>
       </c>
-      <c r="AF8" s="42" t="n">
+      <c r="AF8" s="57" t="n">
         <v>-0.1067386102531363</v>
       </c>
-      <c r="AG8" s="41" t="n">
+      <c r="AG8" s="34" t="n">
         <v>-0.07045152408337318</v>
       </c>
       <c r="AH8" s="9" t="n">
         <v>-0.06293304611002375</v>
       </c>
-      <c r="AI8" s="45" t="n">
+      <c r="AI8" s="56" t="n">
         <v>-0.1112124751618033</v>
       </c>
-      <c r="AJ8" s="25" t="n">
+      <c r="AJ8" s="26" t="n">
         <v>0.04604896282230257</v>
       </c>
       <c r="AK8" s="21" t="n">
@@ -1990,49 +1990,49 @@
       <c r="C9" s="22" t="n">
         <v>-0.1408238879620746</v>
       </c>
-      <c r="D9" s="38" t="n">
+      <c r="D9" s="40" t="n">
         <v>0.2010356207742532</v>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="E9" s="33" t="n">
         <v>-0.1610367745528993</v>
       </c>
-      <c r="F9" s="40" t="n">
+      <c r="F9" s="38" t="n">
         <v>0.08193256650572661</v>
       </c>
-      <c r="G9" s="41" t="n">
+      <c r="G9" s="34" t="n">
         <v>-0.06815946943416874</v>
       </c>
-      <c r="H9" s="29" t="n">
+      <c r="H9" s="30" t="n">
         <v>-0.01342187765610243</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="26" t="n">
+      <c r="J9" s="27" t="n">
         <v>-0.09348901444608977</v>
       </c>
-      <c r="K9" s="40" t="n">
+      <c r="K9" s="38" t="n">
         <v>0.07989078786075346</v>
       </c>
       <c r="L9" s="58" t="n">
         <v>0.3760716127405785</v>
       </c>
-      <c r="M9" s="27" t="n">
+      <c r="M9" s="28" t="n">
         <v>-0.01538024854965128</v>
       </c>
       <c r="N9" s="20" t="n">
         <v>-0.03362517893879888</v>
       </c>
-      <c r="O9" s="59" t="n">
+      <c r="O9" s="54" t="n">
         <v>0.2624899502358374</v>
       </c>
-      <c r="P9" s="60" t="n">
+      <c r="P9" s="59" t="n">
         <v>-0.1553842147081658</v>
       </c>
-      <c r="Q9" s="43" t="n">
-        <v>0.1040651238008718</v>
-      </c>
-      <c r="R9" s="33" t="n">
+      <c r="Q9" s="16" t="n">
+        <v>0.1575779878270983</v>
+      </c>
+      <c r="R9" s="35" t="n">
         <v>-0.08602210400621119</v>
       </c>
       <c r="S9" s="17" t="n">
@@ -2041,10 +2041,10 @@
       <c r="T9" s="19" t="n">
         <v>-0.1162241148483435</v>
       </c>
-      <c r="U9" s="61" t="n">
+      <c r="U9" s="60" t="n">
         <v>-0.2543151115412697</v>
       </c>
-      <c r="V9" s="35" t="n">
+      <c r="V9" s="37" t="n">
         <v>0.06505805303239334</v>
       </c>
       <c r="W9" s="20" t="n">
@@ -2053,43 +2053,43 @@
       <c r="X9" s="5" t="n">
         <v>-0.04879276646584482</v>
       </c>
-      <c r="Y9" s="32" t="n">
+      <c r="Y9" s="33" t="n">
         <v>-0.1597670810447546</v>
       </c>
-      <c r="Z9" s="4" t="n">
-        <v>-0.3101374620143763</v>
-      </c>
-      <c r="AA9" s="62" t="n">
-        <v>-0.270543831746926</v>
-      </c>
-      <c r="AB9" s="63" t="n">
-        <v>-0.3021336434588427</v>
-      </c>
-      <c r="AC9" s="26" t="n">
+      <c r="Z9" s="61" t="n">
+        <v>-0.2999545272143476</v>
+      </c>
+      <c r="AA9" s="60" t="n">
+        <v>-0.255120801959152</v>
+      </c>
+      <c r="AB9" s="62" t="n">
+        <v>-0.272998114707685</v>
+      </c>
+      <c r="AC9" s="27" t="n">
         <v>-0.1003400191133688</v>
       </c>
-      <c r="AD9" s="39" t="n">
+      <c r="AD9" s="41" t="n">
         <v>0.03682489812699019</v>
       </c>
-      <c r="AE9" s="25" t="n">
+      <c r="AE9" s="26" t="n">
         <v>0.04734910674411908</v>
       </c>
-      <c r="AF9" s="64" t="n">
+      <c r="AF9" s="63" t="n">
         <v>-0.276242871798599</v>
       </c>
-      <c r="AG9" s="28" t="n">
+      <c r="AG9" s="29" t="n">
         <v>-0.1270536983237224</v>
       </c>
-      <c r="AH9" s="45" t="n">
+      <c r="AH9" s="56" t="n">
         <v>-0.1147732979864583</v>
       </c>
-      <c r="AI9" s="29" t="n">
+      <c r="AI9" s="30" t="n">
         <v>-0.01026020206401835</v>
       </c>
-      <c r="AJ9" s="65" t="n">
+      <c r="AJ9" s="64" t="n">
         <v>0.2559773269516783</v>
       </c>
-      <c r="AK9" s="37" t="n">
+      <c r="AK9" s="39" t="n">
         <v>0.01754288012614439</v>
       </c>
     </row>
@@ -2102,25 +2102,25 @@
       <c r="B10" s="9" t="n">
         <v>-0.05769956500509245</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="26" t="n">
         <v>0.04972648415258268</v>
       </c>
-      <c r="D10" s="39" t="n">
+      <c r="D10" s="41" t="n">
         <v>0.0374648575855217</v>
       </c>
-      <c r="E10" s="29" t="n">
+      <c r="E10" s="30" t="n">
         <v>-0.009104846720487983</v>
       </c>
-      <c r="F10" s="37" t="n">
+      <c r="F10" s="39" t="n">
         <v>0.02003059548090442</v>
       </c>
-      <c r="G10" s="29" t="n">
+      <c r="G10" s="30" t="n">
         <v>-0.01030987611738905</v>
       </c>
-      <c r="H10" s="27" t="n">
+      <c r="H10" s="28" t="n">
         <v>-0.01491266856608393</v>
       </c>
-      <c r="I10" s="26" t="n">
+      <c r="I10" s="27" t="n">
         <v>-0.09348901444608977</v>
       </c>
       <c r="J10" s="2" t="n">
@@ -2135,55 +2135,55 @@
       <c r="M10" s="18" t="n">
         <v>-0.08877831455436708</v>
       </c>
-      <c r="N10" s="33" t="n">
+      <c r="N10" s="35" t="n">
         <v>-0.08341993438976598</v>
       </c>
       <c r="O10" s="12" t="n">
         <v>0.03189932886023242</v>
       </c>
-      <c r="P10" s="66" t="n">
+      <c r="P10" s="65" t="n">
         <v>-0.218241519148845</v>
       </c>
-      <c r="Q10" s="35" t="n">
-        <v>0.07070575443941494</v>
-      </c>
-      <c r="R10" s="46" t="n">
+      <c r="Q10" s="41" t="n">
+        <v>0.04060667011156783</v>
+      </c>
+      <c r="R10" s="44" t="n">
         <v>0.14237241588854</v>
       </c>
       <c r="S10" s="20" t="n">
         <v>-0.02867956496920956</v>
       </c>
-      <c r="T10" s="23" t="n">
+      <c r="T10" s="24" t="n">
         <v>-0.05306635653594623</v>
       </c>
-      <c r="U10" s="35" t="n">
+      <c r="U10" s="37" t="n">
         <v>0.07005293117716205</v>
       </c>
-      <c r="V10" s="42" t="n">
+      <c r="V10" s="57" t="n">
         <v>-0.1040841097570657</v>
       </c>
-      <c r="W10" s="43" t="n">
+      <c r="W10" s="42" t="n">
         <v>0.1011660421823342</v>
       </c>
-      <c r="X10" s="67" t="n">
+      <c r="X10" s="66" t="n">
         <v>0.1308305471161241</v>
       </c>
       <c r="Y10" s="10" t="n">
         <v>0.02337136285116752</v>
       </c>
-      <c r="Z10" s="33" t="n">
-        <v>-0.08484365854540926</v>
-      </c>
-      <c r="AA10" s="33" t="n">
-        <v>-0.08297586670147716</v>
-      </c>
-      <c r="AB10" s="42" t="n">
-        <v>-0.1035070636088252</v>
-      </c>
-      <c r="AC10" s="42" t="n">
+      <c r="Z10" s="27" t="n">
+        <v>-0.09378803243017687</v>
+      </c>
+      <c r="AA10" s="27" t="n">
+        <v>-0.09528529702431342</v>
+      </c>
+      <c r="AB10" s="19" t="n">
+        <v>-0.1163035544176122</v>
+      </c>
+      <c r="AC10" s="57" t="n">
         <v>-0.1032211279464281</v>
       </c>
-      <c r="AD10" s="68" t="n">
+      <c r="AD10" s="67" t="n">
         <v>0.3205199654044934</v>
       </c>
       <c r="AE10" s="21" t="n">
@@ -2192,16 +2192,16 @@
       <c r="AF10" s="8" t="n">
         <v>0.1245510400878396</v>
       </c>
-      <c r="AG10" s="43" t="n">
+      <c r="AG10" s="42" t="n">
         <v>0.105381220389402</v>
       </c>
-      <c r="AH10" s="37" t="n">
+      <c r="AH10" s="39" t="n">
         <v>0.01718061513435048</v>
       </c>
-      <c r="AI10" s="35" t="n">
+      <c r="AI10" s="37" t="n">
         <v>0.06684351026509223</v>
       </c>
-      <c r="AJ10" s="51" t="n">
+      <c r="AJ10" s="48" t="n">
         <v>-0.1441975511772411</v>
       </c>
       <c r="AK10" s="20" t="n">
@@ -2220,22 +2220,22 @@
       <c r="C11" s="17" t="n">
         <v>0.004349332484947553</v>
       </c>
-      <c r="D11" s="29" t="n">
+      <c r="D11" s="30" t="n">
         <v>-0.01122156254193901</v>
       </c>
       <c r="E11" s="13" t="n">
         <v>-0.02680099080905152</v>
       </c>
-      <c r="F11" s="28" t="n">
+      <c r="F11" s="29" t="n">
         <v>-0.1281823208777396</v>
       </c>
-      <c r="G11" s="41" t="n">
+      <c r="G11" s="34" t="n">
         <v>-0.06929529870337249</v>
       </c>
-      <c r="H11" s="55" t="n">
+      <c r="H11" s="53" t="n">
         <v>0.3430715259411314</v>
       </c>
-      <c r="I11" s="40" t="n">
+      <c r="I11" s="38" t="n">
         <v>0.07989078786075346</v>
       </c>
       <c r="J11" s="13" t="n">
@@ -2247,20 +2247,20 @@
       <c r="L11" s="12" t="n">
         <v>0.03381056059417924</v>
       </c>
-      <c r="M11" s="52" t="n">
+      <c r="M11" s="49" t="n">
         <v>-0.002359490808367444</v>
       </c>
-      <c r="N11" s="37" t="n">
+      <c r="N11" s="39" t="n">
         <v>0.02054102265420784</v>
       </c>
-      <c r="O11" s="39" t="n">
+      <c r="O11" s="41" t="n">
         <v>0.04196494002462448</v>
       </c>
-      <c r="P11" s="27" t="n">
+      <c r="P11" s="28" t="n">
         <v>-0.0185413547282704</v>
       </c>
-      <c r="Q11" s="69" t="n">
-        <v>0.3268325778283888</v>
+      <c r="Q11" s="68" t="n">
+        <v>0.333325010882888</v>
       </c>
       <c r="R11" s="9" t="n">
         <v>-0.05815342803675953</v>
@@ -2271,43 +2271,43 @@
       <c r="T11" s="62" t="n">
         <v>-0.2675634277380984</v>
       </c>
-      <c r="U11" s="52" t="n">
+      <c r="U11" s="49" t="n">
         <v>-0.0002355640291668893</v>
       </c>
-      <c r="V11" s="70" t="n">
+      <c r="V11" s="69" t="n">
         <v>0.1787876706181824</v>
       </c>
-      <c r="W11" s="23" t="n">
+      <c r="W11" s="24" t="n">
         <v>-0.05107492631620144</v>
       </c>
       <c r="X11" s="17" t="n">
         <v>0.002207441662954154</v>
       </c>
-      <c r="Y11" s="44" t="n">
+      <c r="Y11" s="43" t="n">
         <v>0.1718531293848588</v>
       </c>
-      <c r="Z11" s="57" t="n">
-        <v>-0.2037121342349327</v>
-      </c>
-      <c r="AA11" s="49" t="n">
-        <v>-0.1364690935012688</v>
-      </c>
-      <c r="AB11" s="45" t="n">
-        <v>-0.1130162017619328</v>
-      </c>
-      <c r="AC11" s="60" t="n">
+      <c r="Z11" s="70" t="n">
+        <v>-0.1818414517610637</v>
+      </c>
+      <c r="AA11" s="57" t="n">
+        <v>-0.1068277185090716</v>
+      </c>
+      <c r="AB11" s="18" t="n">
+        <v>-0.09288784708302676</v>
+      </c>
+      <c r="AC11" s="59" t="n">
         <v>-0.1561609883118394</v>
       </c>
-      <c r="AD11" s="46" t="n">
+      <c r="AD11" s="44" t="n">
         <v>0.1382451421538816</v>
       </c>
-      <c r="AE11" s="34" t="n">
+      <c r="AE11" s="36" t="n">
         <v>0.0584558224163066</v>
       </c>
-      <c r="AF11" s="32" t="n">
+      <c r="AF11" s="33" t="n">
         <v>-0.1581663603410207</v>
       </c>
-      <c r="AG11" s="33" t="n">
+      <c r="AG11" s="35" t="n">
         <v>-0.08131568231599963</v>
       </c>
       <c r="AH11" s="22" t="n">
@@ -2316,10 +2316,10 @@
       <c r="AI11" s="13" t="n">
         <v>-0.02717958671797464</v>
       </c>
-      <c r="AJ11" s="40" t="n">
+      <c r="AJ11" s="38" t="n">
         <v>0.08576559249105575</v>
       </c>
-      <c r="AK11" s="25" t="n">
+      <c r="AK11" s="26" t="n">
         <v>0.04946743230474661</v>
       </c>
     </row>
@@ -2332,22 +2332,22 @@
       <c r="B12" s="11" t="n">
         <v>0.07716535049843894</v>
       </c>
-      <c r="C12" s="32" t="n">
+      <c r="C12" s="33" t="n">
         <v>-0.1628168365309454</v>
       </c>
-      <c r="D12" s="40" t="n">
+      <c r="D12" s="38" t="n">
         <v>0.08509396153899361</v>
       </c>
       <c r="E12" s="17" t="n">
         <v>0.006878021428012145</v>
       </c>
-      <c r="F12" s="52" t="n">
+      <c r="F12" s="49" t="n">
         <v>-0.0006999010786870073</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="28" t="n">
         <v>-0.0191620034763857</v>
       </c>
-      <c r="H12" s="39" t="n">
+      <c r="H12" s="41" t="n">
         <v>0.03626028297783671</v>
       </c>
       <c r="I12" s="58" t="n">
@@ -2362,22 +2362,22 @@
       <c r="L12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M12" s="37" t="n">
+      <c r="M12" s="39" t="n">
         <v>0.02146964949706213</v>
       </c>
-      <c r="N12" s="33" t="n">
+      <c r="N12" s="35" t="n">
         <v>-0.08284000097596204</v>
       </c>
       <c r="O12" s="71" t="n">
         <v>0.3490326890123398</v>
       </c>
-      <c r="P12" s="33" t="n">
+      <c r="P12" s="35" t="n">
         <v>-0.08190494902979277</v>
       </c>
-      <c r="Q12" s="7" t="n">
-        <v>0.05347935664901725</v>
-      </c>
-      <c r="R12" s="52" t="n">
+      <c r="Q12" s="51" t="n">
+        <v>0.08868046488125349</v>
+      </c>
+      <c r="R12" s="49" t="n">
         <v>-0.002935305073815151</v>
       </c>
       <c r="S12" s="13" t="n">
@@ -2386,29 +2386,29 @@
       <c r="T12" s="18" t="n">
         <v>-0.08928184501938287</v>
       </c>
-      <c r="U12" s="53" t="n">
+      <c r="U12" s="50" t="n">
         <v>-0.1696860578963805</v>
       </c>
-      <c r="V12" s="39" t="n">
+      <c r="V12" s="41" t="n">
         <v>0.03701504327532471</v>
       </c>
-      <c r="W12" s="25" t="n">
+      <c r="W12" s="26" t="n">
         <v>0.04334748322236551</v>
       </c>
-      <c r="X12" s="52" t="n">
+      <c r="X12" s="49" t="n">
         <v>-0.005207576466180927</v>
       </c>
-      <c r="Y12" s="41" t="n">
+      <c r="Y12" s="34" t="n">
         <v>-0.07119960109027877</v>
       </c>
       <c r="Z12" s="72" t="n">
-        <v>-0.1759318032002895</v>
-      </c>
-      <c r="AA12" s="32" t="n">
-        <v>-0.1594667257781564</v>
-      </c>
-      <c r="AB12" s="30" t="n">
-        <v>-0.18927552270676</v>
+        <v>-0.1776603414467421</v>
+      </c>
+      <c r="AA12" s="50" t="n">
+        <v>-0.1659928058385806</v>
+      </c>
+      <c r="AB12" s="50" t="n">
+        <v>-0.1714737576429668</v>
       </c>
       <c r="AC12" s="6" t="n">
         <v>0.01234857758104201</v>
@@ -2416,25 +2416,25 @@
       <c r="AD12" s="7" t="n">
         <v>0.05391740534815245</v>
       </c>
-      <c r="AE12" s="39" t="n">
+      <c r="AE12" s="41" t="n">
         <v>0.04081831992777412</v>
       </c>
-      <c r="AF12" s="57" t="n">
+      <c r="AF12" s="55" t="n">
         <v>-0.2062133349484696</v>
       </c>
       <c r="AG12" s="15" t="n">
         <v>-0.07780385594916879</v>
       </c>
-      <c r="AH12" s="42" t="n">
+      <c r="AH12" s="57" t="n">
         <v>-0.1049749932363574</v>
       </c>
-      <c r="AI12" s="24" t="n">
+      <c r="AI12" s="25" t="n">
         <v>-0.04074270062549682</v>
       </c>
-      <c r="AJ12" s="46" t="n">
+      <c r="AJ12" s="44" t="n">
         <v>0.1427934572524119</v>
       </c>
-      <c r="AK12" s="47" t="n">
+      <c r="AK12" s="45" t="n">
         <v>0.09445518546852706</v>
       </c>
     </row>
@@ -2447,13 +2447,13 @@
       <c r="B13" s="12" t="n">
         <v>0.03465248096022581</v>
       </c>
-      <c r="C13" s="29" t="n">
+      <c r="C13" s="30" t="n">
         <v>-0.01348148713876911</v>
       </c>
       <c r="D13" s="12" t="n">
         <v>0.03478311938892392</v>
       </c>
-      <c r="E13" s="23" t="n">
+      <c r="E13" s="24" t="n">
         <v>-0.05427592104283972</v>
       </c>
       <c r="F13" s="10" t="n">
@@ -2465,16 +2465,16 @@
       <c r="H13" s="17" t="n">
         <v>0.00718090081936915</v>
       </c>
-      <c r="I13" s="27" t="n">
+      <c r="I13" s="28" t="n">
         <v>-0.01538024854965128</v>
       </c>
       <c r="J13" s="18" t="n">
         <v>-0.08877831455436708</v>
       </c>
-      <c r="K13" s="52" t="n">
+      <c r="K13" s="49" t="n">
         <v>-0.002359490808367444</v>
       </c>
-      <c r="L13" s="37" t="n">
+      <c r="L13" s="39" t="n">
         <v>0.02146964949706213</v>
       </c>
       <c r="M13" s="2" t="n">
@@ -2483,31 +2483,31 @@
       <c r="N13" s="73" t="n">
         <v>-0.2419787311063263</v>
       </c>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="28" t="n">
         <v>-0.01945679336081904</v>
       </c>
       <c r="P13" s="17" t="n">
         <v>0.006838394474558961</v>
       </c>
       <c r="Q13" s="7" t="n">
-        <v>0.05298000589490685</v>
-      </c>
-      <c r="R13" s="29" t="n">
+        <v>0.05598450278687612</v>
+      </c>
+      <c r="R13" s="30" t="n">
         <v>-0.007417390786797689</v>
       </c>
-      <c r="S13" s="42" t="n">
+      <c r="S13" s="57" t="n">
         <v>-0.1056001345014524</v>
       </c>
-      <c r="T13" s="27" t="n">
+      <c r="T13" s="28" t="n">
         <v>-0.01974648003713247</v>
       </c>
-      <c r="U13" s="52" t="n">
+      <c r="U13" s="49" t="n">
         <v>-0.004239966206229453</v>
       </c>
       <c r="V13" s="12" t="n">
         <v>0.03526103374392971</v>
       </c>
-      <c r="W13" s="52" t="n">
+      <c r="W13" s="49" t="n">
         <v>-0.006306117586210347</v>
       </c>
       <c r="X13" s="17" t="n">
@@ -2516,14 +2516,14 @@
       <c r="Y13" s="6" t="n">
         <v>0.01008171651265797</v>
       </c>
-      <c r="Z13" s="24" t="n">
-        <v>-0.03652089233859294</v>
-      </c>
-      <c r="AA13" s="5" t="n">
-        <v>-0.05003869715992464</v>
+      <c r="Z13" s="5" t="n">
+        <v>-0.04677468290081725</v>
+      </c>
+      <c r="AA13" s="20" t="n">
+        <v>-0.03099710962609244</v>
       </c>
       <c r="AB13" s="5" t="n">
-        <v>-0.04636863428955382</v>
+        <v>-0.04310096780213529</v>
       </c>
       <c r="AC13" s="11" t="n">
         <v>0.07213128981562872</v>
@@ -2531,10 +2531,10 @@
       <c r="AD13" s="15" t="n">
         <v>-0.07732600604730754</v>
       </c>
-      <c r="AE13" s="39" t="n">
+      <c r="AE13" s="41" t="n">
         <v>0.03616981029248822</v>
       </c>
-      <c r="AF13" s="29" t="n">
+      <c r="AF13" s="30" t="n">
         <v>-0.008161539257725055</v>
       </c>
       <c r="AG13" s="17" t="n">
@@ -2543,13 +2543,13 @@
       <c r="AH13" s="13" t="n">
         <v>-0.02433468624352906</v>
       </c>
-      <c r="AI13" s="52" t="n">
+      <c r="AI13" s="49" t="n">
         <v>-0.003841505634023973</v>
       </c>
       <c r="AJ13" s="20" t="n">
         <v>-0.03345607323803858</v>
       </c>
-      <c r="AK13" s="52" t="n">
+      <c r="AK13" s="49" t="n">
         <v>-0.003308673318226346</v>
       </c>
     </row>
@@ -2568,13 +2568,13 @@
       <c r="D14" s="9" t="n">
         <v>-0.0644864037416804</v>
       </c>
-      <c r="E14" s="39" t="n">
+      <c r="E14" s="41" t="n">
         <v>0.03881032780156882</v>
       </c>
-      <c r="F14" s="53" t="n">
+      <c r="F14" s="50" t="n">
         <v>-0.1656568835146871</v>
       </c>
-      <c r="G14" s="40" t="n">
+      <c r="G14" s="38" t="n">
         <v>0.08307706045292439</v>
       </c>
       <c r="H14" s="8" t="n">
@@ -2583,13 +2583,13 @@
       <c r="I14" s="20" t="n">
         <v>-0.03362517893879888</v>
       </c>
-      <c r="J14" s="33" t="n">
+      <c r="J14" s="35" t="n">
         <v>-0.08341993438976598</v>
       </c>
-      <c r="K14" s="37" t="n">
+      <c r="K14" s="39" t="n">
         <v>0.02054102265420784</v>
       </c>
-      <c r="L14" s="33" t="n">
+      <c r="L14" s="35" t="n">
         <v>-0.08284000097596204</v>
       </c>
       <c r="M14" s="73" t="n">
@@ -2598,73 +2598,73 @@
       <c r="N14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O14" s="24" t="n">
+      <c r="O14" s="25" t="n">
         <v>-0.03861649942642648</v>
       </c>
       <c r="P14" s="17" t="n">
         <v>0.006033489217114494</v>
       </c>
-      <c r="Q14" s="37" t="n">
-        <v>0.0206133222640007</v>
-      </c>
-      <c r="R14" s="26" t="n">
+      <c r="Q14" s="17" t="n">
+        <v>0.006447894414428995</v>
+      </c>
+      <c r="R14" s="27" t="n">
         <v>-0.09836074699589241</v>
       </c>
-      <c r="S14" s="39" t="n">
+      <c r="S14" s="41" t="n">
         <v>0.03823650567522041</v>
       </c>
-      <c r="T14" s="27" t="n">
+      <c r="T14" s="28" t="n">
         <v>-0.01959163756955105</v>
       </c>
       <c r="U14" s="9" t="n">
         <v>-0.06113009525680869</v>
       </c>
-      <c r="V14" s="39" t="n">
+      <c r="V14" s="41" t="n">
         <v>0.0405068218454361</v>
       </c>
-      <c r="W14" s="23" t="n">
+      <c r="W14" s="24" t="n">
         <v>-0.05105274647605658</v>
       </c>
       <c r="X14" s="20" t="n">
         <v>-0.02955725904637047</v>
       </c>
-      <c r="Y14" s="43" t="n">
+      <c r="Y14" s="42" t="n">
         <v>0.1059446008258293</v>
       </c>
-      <c r="Z14" s="6" t="n">
-        <v>0.008699269523669947</v>
-      </c>
-      <c r="AA14" s="37" t="n">
-        <v>0.01913308077847716</v>
-      </c>
-      <c r="AB14" s="10" t="n">
-        <v>0.02429330824359775</v>
-      </c>
-      <c r="AC14" s="52" t="n">
+      <c r="Z14" s="49" t="n">
+        <v>-0.0007113993142388575</v>
+      </c>
+      <c r="AA14" s="49" t="n">
+        <v>-0.001519692911524025</v>
+      </c>
+      <c r="AB14" s="17" t="n">
+        <v>0.004042579668098747</v>
+      </c>
+      <c r="AC14" s="49" t="n">
         <v>-0.003826911120369322</v>
       </c>
       <c r="AD14" s="18" t="n">
         <v>-0.08712600303931989</v>
       </c>
-      <c r="AE14" s="23" t="n">
+      <c r="AE14" s="24" t="n">
         <v>-0.0572736560631114</v>
       </c>
-      <c r="AF14" s="35" t="n">
+      <c r="AF14" s="37" t="n">
         <v>0.06770601831952149</v>
       </c>
-      <c r="AG14" s="52" t="n">
+      <c r="AG14" s="49" t="n">
         <v>-0.003192866602291579</v>
       </c>
-      <c r="AH14" s="29" t="n">
+      <c r="AH14" s="30" t="n">
         <v>-0.01289462232274146</v>
       </c>
-      <c r="AI14" s="24" t="n">
+      <c r="AI14" s="25" t="n">
         <v>-0.04277356399930701</v>
       </c>
-      <c r="AJ14" s="24" t="n">
+      <c r="AJ14" s="25" t="n">
         <v>-0.03590345753353828</v>
       </c>
-      <c r="AK14" s="36" t="n">
+      <c r="AK14" s="51" t="n">
         <v>0.09006513555818021</v>
       </c>
     </row>
@@ -2680,61 +2680,61 @@
       <c r="C15" s="22" t="n">
         <v>-0.1425024699913743</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="26" t="n">
         <v>0.04816046122269663</v>
       </c>
-      <c r="E15" s="41" t="n">
+      <c r="E15" s="34" t="n">
         <v>-0.06720874112778236</v>
       </c>
-      <c r="F15" s="37" t="n">
+      <c r="F15" s="39" t="n">
         <v>0.0165881124987083</v>
       </c>
-      <c r="G15" s="41" t="n">
+      <c r="G15" s="34" t="n">
         <v>-0.0662060445532625</v>
       </c>
-      <c r="H15" s="36" t="n">
+      <c r="H15" s="51" t="n">
         <v>0.09322262165185255</v>
       </c>
-      <c r="I15" s="59" t="n">
+      <c r="I15" s="54" t="n">
         <v>0.2624899502358374</v>
       </c>
       <c r="J15" s="12" t="n">
         <v>0.03189932886023242</v>
       </c>
-      <c r="K15" s="39" t="n">
+      <c r="K15" s="41" t="n">
         <v>0.04196494002462448</v>
       </c>
       <c r="L15" s="71" t="n">
         <v>0.3490326890123398</v>
       </c>
-      <c r="M15" s="27" t="n">
+      <c r="M15" s="28" t="n">
         <v>-0.01945679336081904</v>
       </c>
-      <c r="N15" s="24" t="n">
+      <c r="N15" s="25" t="n">
         <v>-0.03861649942642648</v>
       </c>
       <c r="O15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="33" t="n">
+      <c r="P15" s="35" t="n">
         <v>-0.08513588897589551</v>
       </c>
-      <c r="Q15" s="36" t="n">
-        <v>0.09333842519647573</v>
+      <c r="Q15" s="21" t="n">
+        <v>0.1145345973738024</v>
       </c>
       <c r="R15" s="5" t="n">
         <v>-0.04920685411570092</v>
       </c>
-      <c r="S15" s="29" t="n">
+      <c r="S15" s="30" t="n">
         <v>-0.008720168534628059</v>
       </c>
-      <c r="T15" s="26" t="n">
+      <c r="T15" s="27" t="n">
         <v>-0.09557873766728565</v>
       </c>
       <c r="U15" s="74" t="n">
         <v>-0.1969136680914683</v>
       </c>
-      <c r="V15" s="52" t="n">
+      <c r="V15" s="49" t="n">
         <v>-0.004692103630002771</v>
       </c>
       <c r="W15" s="6" t="n">
@@ -2743,40 +2743,40 @@
       <c r="X15" s="5" t="n">
         <v>-0.04565992130226806</v>
       </c>
-      <c r="Y15" s="52" t="n">
+      <c r="Y15" s="49" t="n">
         <v>-0.00629539946802646</v>
       </c>
-      <c r="Z15" s="53" t="n">
-        <v>-0.1698086011024363</v>
-      </c>
-      <c r="AA15" s="51" t="n">
-        <v>-0.1508734850484202</v>
-      </c>
-      <c r="AB15" s="51" t="n">
-        <v>-0.1465807737460226</v>
-      </c>
-      <c r="AC15" s="24" t="n">
+      <c r="Z15" s="50" t="n">
+        <v>-0.1663490784177249</v>
+      </c>
+      <c r="AA15" s="33" t="n">
+        <v>-0.1584266858906406</v>
+      </c>
+      <c r="AB15" s="23" t="n">
+        <v>-0.1319262220318881</v>
+      </c>
+      <c r="AC15" s="25" t="n">
         <v>-0.04109694128826988</v>
       </c>
-      <c r="AD15" s="35" t="n">
+      <c r="AD15" s="37" t="n">
         <v>0.0698624491297566</v>
       </c>
       <c r="AE15" s="17" t="n">
         <v>0.0004333603117258513</v>
       </c>
-      <c r="AF15" s="64" t="n">
+      <c r="AF15" s="63" t="n">
         <v>-0.2743949187969947</v>
       </c>
       <c r="AG15" s="18" t="n">
         <v>-0.08929120988889643</v>
       </c>
-      <c r="AH15" s="51" t="n">
+      <c r="AH15" s="48" t="n">
         <v>-0.1502311094436309</v>
       </c>
-      <c r="AI15" s="23" t="n">
+      <c r="AI15" s="24" t="n">
         <v>-0.05254274573769873</v>
       </c>
-      <c r="AJ15" s="48" t="n">
+      <c r="AJ15" s="46" t="n">
         <v>0.1615120708016146</v>
       </c>
       <c r="AK15" s="75" t="n">
@@ -2792,34 +2792,34 @@
       <c r="B16" s="15" t="n">
         <v>-0.07469454464548468</v>
       </c>
-      <c r="C16" s="29" t="n">
+      <c r="C16" s="30" t="n">
         <v>-0.007879641056983187</v>
       </c>
       <c r="D16" s="18" t="n">
         <v>-0.09311643970632129</v>
       </c>
-      <c r="E16" s="44" t="n">
+      <c r="E16" s="43" t="n">
         <v>0.1678355367592739</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.01254635703755115</v>
       </c>
-      <c r="G16" s="29" t="n">
+      <c r="G16" s="30" t="n">
         <v>-0.01246459572936387</v>
       </c>
       <c r="H16" s="17" t="n">
         <v>0.001656095831687403</v>
       </c>
-      <c r="I16" s="60" t="n">
+      <c r="I16" s="59" t="n">
         <v>-0.1553842147081658</v>
       </c>
-      <c r="J16" s="66" t="n">
+      <c r="J16" s="65" t="n">
         <v>-0.218241519148845</v>
       </c>
-      <c r="K16" s="27" t="n">
+      <c r="K16" s="28" t="n">
         <v>-0.0185413547282704</v>
       </c>
-      <c r="L16" s="33" t="n">
+      <c r="L16" s="35" t="n">
         <v>-0.08190494902979277</v>
       </c>
       <c r="M16" s="17" t="n">
@@ -2828,19 +2828,19 @@
       <c r="N16" s="17" t="n">
         <v>0.006033489217114494</v>
       </c>
-      <c r="O16" s="33" t="n">
+      <c r="O16" s="35" t="n">
         <v>-0.08513588897589551</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" s="51" t="n">
-        <v>-0.150001948025012</v>
-      </c>
-      <c r="R16" s="35" t="n">
+      <c r="Q16" s="33" t="n">
+        <v>-0.158861942480227</v>
+      </c>
+      <c r="R16" s="37" t="n">
         <v>0.06620640618586345</v>
       </c>
-      <c r="S16" s="25" t="n">
+      <c r="S16" s="26" t="n">
         <v>0.04936052364312877</v>
       </c>
       <c r="T16" s="76" t="n">
@@ -2849,31 +2849,31 @@
       <c r="U16" s="12" t="n">
         <v>0.02981791192457478</v>
       </c>
-      <c r="V16" s="37" t="n">
+      <c r="V16" s="39" t="n">
         <v>0.02113668103971158</v>
       </c>
       <c r="W16" s="6" t="n">
         <v>0.009341492388836616</v>
       </c>
-      <c r="X16" s="23" t="n">
+      <c r="X16" s="24" t="n">
         <v>-0.05344939926857267</v>
       </c>
-      <c r="Y16" s="45" t="n">
+      <c r="Y16" s="56" t="n">
         <v>-0.112680397228369</v>
       </c>
-      <c r="Z16" s="59" t="n">
-        <v>0.2614421409575814</v>
-      </c>
-      <c r="AA16" s="77" t="n">
-        <v>0.2497189365222261</v>
-      </c>
-      <c r="AB16" s="56" t="n">
-        <v>0.2415331513389613</v>
+      <c r="Z16" s="77" t="n">
+        <v>0.2851321437802544</v>
+      </c>
+      <c r="AA16" s="78" t="n">
+        <v>0.2663543240695661</v>
+      </c>
+      <c r="AB16" s="79" t="n">
+        <v>0.2743322109699638</v>
       </c>
       <c r="AC16" s="14" t="n">
         <v>0.1497147677301451</v>
       </c>
-      <c r="AD16" s="78" t="n">
+      <c r="AD16" s="80" t="n">
         <v>-0.2503100595158247</v>
       </c>
       <c r="AE16" s="19" t="n">
@@ -2882,19 +2882,19 @@
       <c r="AF16" s="11" t="n">
         <v>0.07259273194384337</v>
       </c>
-      <c r="AG16" s="25" t="n">
+      <c r="AG16" s="26" t="n">
         <v>0.0446906966887278</v>
       </c>
-      <c r="AH16" s="39" t="n">
+      <c r="AH16" s="41" t="n">
         <v>0.04242922873400441</v>
       </c>
-      <c r="AI16" s="39" t="n">
+      <c r="AI16" s="41" t="n">
         <v>0.03860393270180213</v>
       </c>
-      <c r="AJ16" s="23" t="n">
+      <c r="AJ16" s="24" t="n">
         <v>-0.05498548473279471</v>
       </c>
-      <c r="AK16" s="24" t="n">
+      <c r="AK16" s="25" t="n">
         <v>-0.04184038526694481</v>
       </c>
     </row>
@@ -2905,112 +2905,112 @@
         </is>
       </c>
       <c r="B17" s="16" t="n">
-        <v>0.1536698842756647</v>
-      </c>
-      <c r="C17" s="33" t="n">
-        <v>-0.07915958427053797</v>
-      </c>
-      <c r="D17" s="17" t="n">
-        <v>0.007052175021839486</v>
-      </c>
-      <c r="E17" s="45" t="n">
-        <v>-0.110017003911319</v>
-      </c>
-      <c r="F17" s="18" t="n">
-        <v>-0.09102210742280839</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v>-0.04859192229884469</v>
-      </c>
-      <c r="H17" s="56" t="n">
-        <v>0.2424895531539729</v>
-      </c>
-      <c r="I17" s="43" t="n">
-        <v>0.1040651238008718</v>
-      </c>
-      <c r="J17" s="35" t="n">
-        <v>0.07070575443941494</v>
-      </c>
-      <c r="K17" s="69" t="n">
-        <v>0.3268325778283888</v>
-      </c>
-      <c r="L17" s="7" t="n">
-        <v>0.05347935664901725</v>
+        <v>0.1575542520339424</v>
+      </c>
+      <c r="C17" s="34" t="n">
+        <v>-0.07071658745619185</v>
+      </c>
+      <c r="D17" s="39" t="n">
+        <v>0.02067209125325885</v>
+      </c>
+      <c r="E17" s="23" t="n">
+        <v>-0.1334522855663292</v>
+      </c>
+      <c r="F17" s="34" t="n">
+        <v>-0.06610675662842273</v>
+      </c>
+      <c r="G17" s="35" t="n">
+        <v>-0.08436559785222759</v>
+      </c>
+      <c r="H17" s="54" t="n">
+        <v>0.2659538188042782</v>
+      </c>
+      <c r="I17" s="16" t="n">
+        <v>0.1575779878270983</v>
+      </c>
+      <c r="J17" s="41" t="n">
+        <v>0.04060667011156783</v>
+      </c>
+      <c r="K17" s="68" t="n">
+        <v>0.333325010882888</v>
+      </c>
+      <c r="L17" s="51" t="n">
+        <v>0.08868046488125349</v>
       </c>
       <c r="M17" s="7" t="n">
-        <v>0.05298000589490685</v>
-      </c>
-      <c r="N17" s="37" t="n">
-        <v>0.0206133222640007</v>
-      </c>
-      <c r="O17" s="36" t="n">
-        <v>0.09333842519647573</v>
-      </c>
-      <c r="P17" s="51" t="n">
-        <v>-0.150001948025012</v>
+        <v>0.05598450278687612</v>
+      </c>
+      <c r="N17" s="17" t="n">
+        <v>0.006447894414428995</v>
+      </c>
+      <c r="O17" s="21" t="n">
+        <v>0.1145345973738024</v>
+      </c>
+      <c r="P17" s="33" t="n">
+        <v>-0.158861942480227</v>
       </c>
       <c r="Q17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="29" t="n">
-        <v>-0.0121921387704747</v>
-      </c>
-      <c r="S17" s="18" t="n">
-        <v>-0.08632045237938404</v>
-      </c>
-      <c r="T17" s="79" t="n">
-        <v>-0.3218516277454745</v>
-      </c>
-      <c r="U17" s="45" t="n">
-        <v>-0.1081776182788884</v>
-      </c>
-      <c r="V17" s="34" t="n">
-        <v>0.06223822719958143</v>
-      </c>
-      <c r="W17" s="41" t="n">
-        <v>-0.07086008786348034</v>
-      </c>
-      <c r="X17" s="12" t="n">
-        <v>0.03402679500582826</v>
-      </c>
-      <c r="Y17" s="67" t="n">
-        <v>0.1355071478683295</v>
-      </c>
-      <c r="Z17" s="80" t="n">
-        <v>-0.3993396776811775</v>
-      </c>
-      <c r="AA17" s="80" t="n">
-        <v>-0.4016441682511349</v>
-      </c>
-      <c r="AB17" s="54" t="n">
-        <v>-0.4169479380651471</v>
-      </c>
-      <c r="AC17" s="37" t="n">
-        <v>0.01978361859988955</v>
-      </c>
-      <c r="AD17" s="43" t="n">
-        <v>0.1019799101781613</v>
-      </c>
-      <c r="AE17" s="47" t="n">
-        <v>0.09691601621714321</v>
-      </c>
-      <c r="AF17" s="81" t="n">
-        <v>-0.2148110793581545</v>
-      </c>
-      <c r="AG17" s="22" t="n">
-        <v>-0.1400140215451092</v>
+      <c r="R17" s="9" t="n">
+        <v>-0.05860880413384958</v>
+      </c>
+      <c r="S17" s="9" t="n">
+        <v>-0.062290646906138</v>
+      </c>
+      <c r="T17" s="4" t="n">
+        <v>-0.3157798597739959</v>
+      </c>
+      <c r="U17" s="35" t="n">
+        <v>-0.07940242831743415</v>
+      </c>
+      <c r="V17" s="11" t="n">
+        <v>0.07625123141896223</v>
+      </c>
+      <c r="W17" s="18" t="n">
+        <v>-0.08763974257555075</v>
+      </c>
+      <c r="X17" s="41" t="n">
+        <v>0.04287993492512188</v>
+      </c>
+      <c r="Y17" s="46" t="n">
+        <v>0.1605157606797203</v>
+      </c>
+      <c r="Z17" s="81" t="n">
+        <v>-0.4282678423872255</v>
+      </c>
+      <c r="AA17" s="82" t="n">
+        <v>-0.4365559370777717</v>
+      </c>
+      <c r="AB17" s="83" t="n">
+        <v>-0.4535193425442514</v>
+      </c>
+      <c r="AC17" s="17" t="n">
+        <v>0.004630095797295051</v>
+      </c>
+      <c r="AD17" s="42" t="n">
+        <v>0.1019144113645762</v>
+      </c>
+      <c r="AE17" s="37" t="n">
+        <v>0.07095485152494438</v>
+      </c>
+      <c r="AF17" s="84" t="n">
+        <v>-0.2235208357510258</v>
+      </c>
+      <c r="AG17" s="59" t="n">
+        <v>-0.1515735378599136</v>
       </c>
       <c r="AH17" s="15" t="n">
-        <v>-0.07542134585067746</v>
-      </c>
-      <c r="AI17" s="17" t="n">
-        <v>0.007062045518288014</v>
-      </c>
-      <c r="AJ17" s="47" t="n">
-        <v>0.09904319334821962</v>
-      </c>
-      <c r="AK17" s="37" t="n">
-        <v>0.01465198238588841</v>
+        <v>-0.07776832171478765</v>
+      </c>
+      <c r="AI17" s="12" t="n">
+        <v>0.02981912411750824</v>
+      </c>
+      <c r="AJ17" s="21" t="n">
+        <v>0.1151188178890828</v>
+      </c>
+      <c r="AK17" s="10" t="n">
+        <v>0.02854718117035234</v>
       </c>
     </row>
     <row r="18">
@@ -3022,50 +3022,50 @@
       <c r="B18" s="17" t="n">
         <v>0.0004037482551208054</v>
       </c>
-      <c r="C18" s="33" t="n">
+      <c r="C18" s="35" t="n">
         <v>-0.08186634036297556</v>
       </c>
-      <c r="D18" s="33" t="n">
+      <c r="D18" s="35" t="n">
         <v>-0.08120024323604876</v>
       </c>
-      <c r="E18" s="46" t="n">
+      <c r="E18" s="44" t="n">
         <v>0.1431637580519421</v>
       </c>
-      <c r="F18" s="27" t="n">
+      <c r="F18" s="28" t="n">
         <v>-0.01739555100281657</v>
       </c>
-      <c r="G18" s="39" t="n">
+      <c r="G18" s="41" t="n">
         <v>0.03623968657485985</v>
       </c>
-      <c r="H18" s="24" t="n">
+      <c r="H18" s="25" t="n">
         <v>-0.03700150926867152</v>
       </c>
-      <c r="I18" s="33" t="n">
+      <c r="I18" s="35" t="n">
         <v>-0.08602210400621119</v>
       </c>
-      <c r="J18" s="46" t="n">
+      <c r="J18" s="44" t="n">
         <v>0.14237241588854</v>
       </c>
       <c r="K18" s="9" t="n">
         <v>-0.05815342803675953</v>
       </c>
-      <c r="L18" s="52" t="n">
+      <c r="L18" s="49" t="n">
         <v>-0.002935305073815151</v>
       </c>
-      <c r="M18" s="29" t="n">
+      <c r="M18" s="30" t="n">
         <v>-0.007417390786797689</v>
       </c>
-      <c r="N18" s="26" t="n">
+      <c r="N18" s="27" t="n">
         <v>-0.09836074699589241</v>
       </c>
       <c r="O18" s="5" t="n">
         <v>-0.04920685411570092</v>
       </c>
-      <c r="P18" s="35" t="n">
+      <c r="P18" s="37" t="n">
         <v>0.06620640618586345</v>
       </c>
-      <c r="Q18" s="29" t="n">
-        <v>-0.0121921387704747</v>
+      <c r="Q18" s="9" t="n">
+        <v>-0.05860880413384958</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>1</v>
@@ -3076,43 +3076,43 @@
       <c r="T18" s="7" t="n">
         <v>0.0549691851790882</v>
       </c>
-      <c r="U18" s="40" t="n">
+      <c r="U18" s="38" t="n">
         <v>0.0840293653987662</v>
       </c>
       <c r="V18" s="7" t="n">
         <v>0.05742134928040906</v>
       </c>
-      <c r="W18" s="35" t="n">
+      <c r="W18" s="37" t="n">
         <v>0.06654288849507588</v>
       </c>
       <c r="X18" s="12" t="n">
         <v>0.03104225240060802</v>
       </c>
-      <c r="Y18" s="24" t="n">
+      <c r="Y18" s="25" t="n">
         <v>-0.0390963780589159</v>
       </c>
-      <c r="Z18" s="21" t="n">
-        <v>0.1096039762496766</v>
-      </c>
-      <c r="AA18" s="75" t="n">
-        <v>0.115304756824427</v>
-      </c>
-      <c r="AB18" s="43" t="n">
-        <v>0.1065659878831418</v>
+      <c r="Z18" s="51" t="n">
+        <v>0.08952066634678404</v>
+      </c>
+      <c r="AA18" s="45" t="n">
+        <v>0.09523847118030428</v>
+      </c>
+      <c r="AB18" s="38" t="n">
+        <v>0.08544973340854901</v>
       </c>
       <c r="AC18" s="17" t="n">
         <v>0.003758967527575351</v>
       </c>
-      <c r="AD18" s="29" t="n">
+      <c r="AD18" s="30" t="n">
         <v>-0.007654111617664317</v>
       </c>
-      <c r="AE18" s="46" t="n">
+      <c r="AE18" s="44" t="n">
         <v>0.1374081765166171</v>
       </c>
-      <c r="AF18" s="67" t="n">
+      <c r="AF18" s="66" t="n">
         <v>0.1363604787003192</v>
       </c>
-      <c r="AG18" s="40" t="n">
+      <c r="AG18" s="38" t="n">
         <v>0.08608946153940916</v>
       </c>
       <c r="AH18" s="17" t="n">
@@ -3121,10 +3121,10 @@
       <c r="AI18" s="7" t="n">
         <v>0.05725607533327906</v>
       </c>
-      <c r="AJ18" s="23" t="n">
+      <c r="AJ18" s="24" t="n">
         <v>-0.05490181133562608</v>
       </c>
-      <c r="AK18" s="42" t="n">
+      <c r="AK18" s="57" t="n">
         <v>-0.1045187982917145</v>
       </c>
     </row>
@@ -3137,19 +3137,19 @@
       <c r="B19" s="13" t="n">
         <v>-0.02799624933739511</v>
       </c>
-      <c r="C19" s="24" t="n">
+      <c r="C19" s="25" t="n">
         <v>-0.04105909388751948</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>0.01054162883316315</v>
       </c>
-      <c r="E19" s="35" t="n">
+      <c r="E19" s="37" t="n">
         <v>0.06688905771159355</v>
       </c>
-      <c r="F19" s="24" t="n">
+      <c r="F19" s="25" t="n">
         <v>-0.04289602132925465</v>
       </c>
-      <c r="G19" s="36" t="n">
+      <c r="G19" s="51" t="n">
         <v>0.08809075969940416</v>
       </c>
       <c r="H19" s="18" t="n">
@@ -3167,20 +3167,20 @@
       <c r="L19" s="13" t="n">
         <v>-0.02540296240044285</v>
       </c>
-      <c r="M19" s="42" t="n">
+      <c r="M19" s="57" t="n">
         <v>-0.1056001345014524</v>
       </c>
-      <c r="N19" s="39" t="n">
+      <c r="N19" s="41" t="n">
         <v>0.03823650567522041</v>
       </c>
-      <c r="O19" s="29" t="n">
+      <c r="O19" s="30" t="n">
         <v>-0.008720168534628059</v>
       </c>
-      <c r="P19" s="25" t="n">
+      <c r="P19" s="26" t="n">
         <v>0.04936052364312877</v>
       </c>
-      <c r="Q19" s="18" t="n">
-        <v>-0.08632045237938404</v>
+      <c r="Q19" s="9" t="n">
+        <v>-0.062290646906138</v>
       </c>
       <c r="R19" s="7" t="n">
         <v>0.05342266823034924</v>
@@ -3188,32 +3188,32 @@
       <c r="S19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T19" s="34" t="n">
+      <c r="T19" s="36" t="n">
         <v>0.05993317651255569</v>
       </c>
-      <c r="U19" s="52" t="n">
+      <c r="U19" s="49" t="n">
         <v>-0.003042329400606827</v>
       </c>
-      <c r="V19" s="24" t="n">
+      <c r="V19" s="25" t="n">
         <v>-0.04199826327333864</v>
       </c>
-      <c r="W19" s="37" t="n">
+      <c r="W19" s="39" t="n">
         <v>0.01874066134949105</v>
       </c>
-      <c r="X19" s="52" t="n">
+      <c r="X19" s="49" t="n">
         <v>-0.00490389318138395</v>
       </c>
-      <c r="Y19" s="24" t="n">
+      <c r="Y19" s="25" t="n">
         <v>-0.03977229990693065</v>
       </c>
-      <c r="Z19" s="39" t="n">
-        <v>0.04150737910471401</v>
-      </c>
-      <c r="AA19" s="21" t="n">
-        <v>0.1089180466377387</v>
-      </c>
-      <c r="AB19" s="35" t="n">
-        <v>0.06629515577409571</v>
+      <c r="Z19" s="41" t="n">
+        <v>0.04174213894054818</v>
+      </c>
+      <c r="AA19" s="36" t="n">
+        <v>0.06404896911447046</v>
+      </c>
+      <c r="AB19" s="26" t="n">
+        <v>0.04969940273600416</v>
       </c>
       <c r="AC19" s="10" t="n">
         <v>0.02560953842128478</v>
@@ -3224,7 +3224,7 @@
       <c r="AE19" s="17" t="n">
         <v>0.006702918525065326</v>
       </c>
-      <c r="AF19" s="67" t="n">
+      <c r="AF19" s="66" t="n">
         <v>0.1350478230337964</v>
       </c>
       <c r="AG19" s="11" t="n">
@@ -3236,7 +3236,7 @@
       <c r="AI19" s="12" t="n">
         <v>0.03327412504117477</v>
       </c>
-      <c r="AJ19" s="29" t="n">
+      <c r="AJ19" s="30" t="n">
         <v>-0.009279049588416495</v>
       </c>
       <c r="AK19" s="15" t="n">
@@ -3252,28 +3252,28 @@
       <c r="B20" s="18" t="n">
         <v>-0.08667871805065624</v>
       </c>
-      <c r="C20" s="34" t="n">
+      <c r="C20" s="36" t="n">
         <v>0.05848745466535017</v>
       </c>
-      <c r="D20" s="41" t="n">
+      <c r="D20" s="34" t="n">
         <v>-0.06579245500777016</v>
       </c>
-      <c r="E20" s="47" t="n">
+      <c r="E20" s="45" t="n">
         <v>0.09484073732654442</v>
       </c>
       <c r="F20" s="10" t="n">
         <v>0.02517488132157992</v>
       </c>
-      <c r="G20" s="36" t="n">
+      <c r="G20" s="51" t="n">
         <v>0.09025320205200718</v>
       </c>
-      <c r="H20" s="57" t="n">
+      <c r="H20" s="55" t="n">
         <v>-0.2076898261838422</v>
       </c>
       <c r="I20" s="19" t="n">
         <v>-0.1162241148483435</v>
       </c>
-      <c r="J20" s="23" t="n">
+      <c r="J20" s="24" t="n">
         <v>-0.05306635653594623</v>
       </c>
       <c r="K20" s="62" t="n">
@@ -3282,25 +3282,25 @@
       <c r="L20" s="18" t="n">
         <v>-0.08928184501938287</v>
       </c>
-      <c r="M20" s="27" t="n">
+      <c r="M20" s="28" t="n">
         <v>-0.01974648003713247</v>
       </c>
-      <c r="N20" s="27" t="n">
+      <c r="N20" s="28" t="n">
         <v>-0.01959163756955105</v>
       </c>
-      <c r="O20" s="26" t="n">
+      <c r="O20" s="27" t="n">
         <v>-0.09557873766728565</v>
       </c>
       <c r="P20" s="76" t="n">
         <v>0.2050472009717344</v>
       </c>
-      <c r="Q20" s="79" t="n">
-        <v>-0.3218516277454745</v>
+      <c r="Q20" s="4" t="n">
+        <v>-0.3157798597739959</v>
       </c>
       <c r="R20" s="7" t="n">
         <v>0.0549691851790882</v>
       </c>
-      <c r="S20" s="34" t="n">
+      <c r="S20" s="36" t="n">
         <v>0.05993317651255569</v>
       </c>
       <c r="T20" s="2" t="n">
@@ -3318,28 +3318,28 @@
       <c r="X20" s="17" t="n">
         <v>0.00552226295537396</v>
       </c>
-      <c r="Y20" s="51" t="n">
+      <c r="Y20" s="48" t="n">
         <v>-0.145102492256221</v>
       </c>
-      <c r="Z20" s="55" t="n">
-        <v>0.3423722684630154</v>
-      </c>
-      <c r="AA20" s="69" t="n">
-        <v>0.3291353499858888</v>
-      </c>
-      <c r="AB20" s="55" t="n">
-        <v>0.3418207242958347</v>
+      <c r="Z20" s="53" t="n">
+        <v>0.3402913564894018</v>
+      </c>
+      <c r="AA20" s="85" t="n">
+        <v>0.3259203424559412</v>
+      </c>
+      <c r="AB20" s="53" t="n">
+        <v>0.3400299464674595</v>
       </c>
       <c r="AC20" s="75" t="n">
         <v>0.121469523566106</v>
       </c>
-      <c r="AD20" s="42" t="n">
+      <c r="AD20" s="57" t="n">
         <v>-0.102342504717983</v>
       </c>
-      <c r="AE20" s="41" t="n">
+      <c r="AE20" s="34" t="n">
         <v>-0.06967354729688879</v>
       </c>
-      <c r="AF20" s="82" t="n">
+      <c r="AF20" s="86" t="n">
         <v>0.2238423685594092</v>
       </c>
       <c r="AG20" s="8" t="n">
@@ -3348,10 +3348,10 @@
       <c r="AH20" s="21" t="n">
         <v>0.1120418183632924</v>
       </c>
-      <c r="AI20" s="25" t="n">
+      <c r="AI20" s="26" t="n">
         <v>0.04660275292594422</v>
       </c>
-      <c r="AJ20" s="60" t="n">
+      <c r="AJ20" s="59" t="n">
         <v>-0.1576216446748596</v>
       </c>
       <c r="AK20" s="20" t="n">
@@ -3367,37 +3367,37 @@
       <c r="B21" s="19" t="n">
         <v>-0.1199443142558556</v>
       </c>
-      <c r="C21" s="35" t="n">
+      <c r="C21" s="37" t="n">
         <v>0.07122378602372519</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>-0.04353516887363938</v>
       </c>
-      <c r="E21" s="43" t="n">
+      <c r="E21" s="42" t="n">
         <v>0.1051130931793072</v>
       </c>
       <c r="F21" s="17" t="n">
         <v>0.004524448994832109</v>
       </c>
-      <c r="G21" s="27" t="n">
+      <c r="G21" s="28" t="n">
         <v>-0.0163587048834059</v>
       </c>
       <c r="H21" s="10" t="n">
         <v>0.0223160670353577</v>
       </c>
-      <c r="I21" s="61" t="n">
+      <c r="I21" s="60" t="n">
         <v>-0.2543151115412697</v>
       </c>
-      <c r="J21" s="35" t="n">
+      <c r="J21" s="37" t="n">
         <v>0.07005293117716205</v>
       </c>
-      <c r="K21" s="52" t="n">
+      <c r="K21" s="49" t="n">
         <v>-0.0002355640291668893</v>
       </c>
-      <c r="L21" s="53" t="n">
+      <c r="L21" s="50" t="n">
         <v>-0.1696860578963805</v>
       </c>
-      <c r="M21" s="52" t="n">
+      <c r="M21" s="49" t="n">
         <v>-0.004239966206229453</v>
       </c>
       <c r="N21" s="9" t="n">
@@ -3409,13 +3409,13 @@
       <c r="P21" s="12" t="n">
         <v>0.02981791192457478</v>
       </c>
-      <c r="Q21" s="45" t="n">
-        <v>-0.1081776182788884</v>
-      </c>
-      <c r="R21" s="40" t="n">
+      <c r="Q21" s="35" t="n">
+        <v>-0.07940242831743415</v>
+      </c>
+      <c r="R21" s="38" t="n">
         <v>0.0840293653987662</v>
       </c>
-      <c r="S21" s="52" t="n">
+      <c r="S21" s="49" t="n">
         <v>-0.003042329400606827</v>
       </c>
       <c r="T21" s="11" t="n">
@@ -3427,23 +3427,23 @@
       <c r="V21" s="10" t="n">
         <v>0.02711728554076909</v>
       </c>
-      <c r="W21" s="36" t="n">
+      <c r="W21" s="51" t="n">
         <v>0.09139025126336589</v>
       </c>
       <c r="X21" s="20" t="n">
         <v>-0.03007967608545767</v>
       </c>
-      <c r="Y21" s="34" t="n">
+      <c r="Y21" s="36" t="n">
         <v>0.06129583355803089</v>
       </c>
-      <c r="Z21" s="46" t="n">
-        <v>0.139130481322611</v>
+      <c r="Z21" s="44" t="n">
+        <v>0.138327543286752</v>
       </c>
       <c r="AA21" s="8" t="n">
-        <v>0.1226059759068213</v>
-      </c>
-      <c r="AB21" s="48" t="n">
-        <v>0.1604388539412006</v>
+        <v>0.1238788989270821</v>
+      </c>
+      <c r="AB21" s="44" t="n">
+        <v>0.1433689504964123</v>
       </c>
       <c r="AC21" s="7" t="n">
         <v>0.05719222592414305</v>
@@ -3451,25 +3451,25 @@
       <c r="AD21" s="7" t="n">
         <v>0.0545219439448897</v>
       </c>
-      <c r="AE21" s="40" t="n">
+      <c r="AE21" s="38" t="n">
         <v>0.08154688150314948</v>
       </c>
-      <c r="AF21" s="59" t="n">
+      <c r="AF21" s="54" t="n">
         <v>0.2644092689757016</v>
       </c>
-      <c r="AG21" s="43" t="n">
+      <c r="AG21" s="42" t="n">
         <v>0.1015871141725804</v>
       </c>
-      <c r="AH21" s="40" t="n">
+      <c r="AH21" s="38" t="n">
         <v>0.08356366674561305</v>
       </c>
       <c r="AI21" s="75" t="n">
         <v>0.1200100900129661</v>
       </c>
-      <c r="AJ21" s="64" t="n">
+      <c r="AJ21" s="63" t="n">
         <v>-0.2787590116121554</v>
       </c>
-      <c r="AK21" s="26" t="n">
+      <c r="AK21" s="27" t="n">
         <v>-0.09625346250547648</v>
       </c>
     </row>
@@ -3488,49 +3488,49 @@
       <c r="D22" s="12" t="n">
         <v>0.03302264938838086</v>
       </c>
-      <c r="E22" s="24" t="n">
+      <c r="E22" s="25" t="n">
         <v>-0.04219169495262695</v>
       </c>
       <c r="F22" s="15" t="n">
         <v>-0.07600664132572943</v>
       </c>
-      <c r="G22" s="29" t="n">
+      <c r="G22" s="30" t="n">
         <v>-0.009252968344732033</v>
       </c>
       <c r="H22" s="14" t="n">
         <v>0.1451445321312282</v>
       </c>
-      <c r="I22" s="35" t="n">
+      <c r="I22" s="37" t="n">
         <v>0.06505805303239334</v>
       </c>
-      <c r="J22" s="42" t="n">
+      <c r="J22" s="57" t="n">
         <v>-0.1040841097570657</v>
       </c>
-      <c r="K22" s="70" t="n">
+      <c r="K22" s="69" t="n">
         <v>0.1787876706181824</v>
       </c>
-      <c r="L22" s="39" t="n">
+      <c r="L22" s="41" t="n">
         <v>0.03701504327532471</v>
       </c>
       <c r="M22" s="12" t="n">
         <v>0.03526103374392971</v>
       </c>
-      <c r="N22" s="39" t="n">
+      <c r="N22" s="41" t="n">
         <v>0.0405068218454361</v>
       </c>
-      <c r="O22" s="52" t="n">
+      <c r="O22" s="49" t="n">
         <v>-0.004692103630002771</v>
       </c>
-      <c r="P22" s="37" t="n">
+      <c r="P22" s="39" t="n">
         <v>0.02113668103971158</v>
       </c>
-      <c r="Q22" s="34" t="n">
-        <v>0.06223822719958143</v>
+      <c r="Q22" s="11" t="n">
+        <v>0.07625123141896223</v>
       </c>
       <c r="R22" s="7" t="n">
         <v>0.05742134928040906</v>
       </c>
-      <c r="S22" s="24" t="n">
+      <c r="S22" s="25" t="n">
         <v>-0.04199826327333864</v>
       </c>
       <c r="T22" s="18" t="n">
@@ -3548,22 +3548,22 @@
       <c r="X22" s="13" t="n">
         <v>-0.02647895470893636</v>
       </c>
-      <c r="Y22" s="35" t="n">
+      <c r="Y22" s="37" t="n">
         <v>0.07019097876097732</v>
       </c>
-      <c r="Z22" s="41" t="n">
-        <v>-0.07065548024139701</v>
-      </c>
-      <c r="AA22" s="23" t="n">
-        <v>-0.05544213998072776</v>
-      </c>
-      <c r="AB22" s="23" t="n">
-        <v>-0.05726089401833652</v>
+      <c r="Z22" s="34" t="n">
+        <v>-0.06972940938194061</v>
+      </c>
+      <c r="AA22" s="15" t="n">
+        <v>-0.07437518162124672</v>
+      </c>
+      <c r="AB22" s="9" t="n">
+        <v>-0.06177485515349649</v>
       </c>
       <c r="AC22" s="18" t="n">
         <v>-0.08925516137473936</v>
       </c>
-      <c r="AD22" s="29" t="n">
+      <c r="AD22" s="30" t="n">
         <v>-0.01052458246166815</v>
       </c>
       <c r="AE22" s="10" t="n">
@@ -3572,10 +3572,10 @@
       <c r="AF22" s="5" t="n">
         <v>-0.04334510879770714</v>
       </c>
-      <c r="AG22" s="27" t="n">
+      <c r="AG22" s="28" t="n">
         <v>-0.01923984987382274</v>
       </c>
-      <c r="AH22" s="52" t="n">
+      <c r="AH22" s="49" t="n">
         <v>-0.004536805743258814</v>
       </c>
       <c r="AI22" s="5" t="n">
@@ -3606,7 +3606,7 @@
       <c r="E23" s="10" t="n">
         <v>0.02392416879998962</v>
       </c>
-      <c r="F23" s="37" t="n">
+      <c r="F23" s="39" t="n">
         <v>0.01641708452075031</v>
       </c>
       <c r="G23" s="10" t="n">
@@ -3618,19 +3618,19 @@
       <c r="I23" s="20" t="n">
         <v>-0.03534633693996703</v>
       </c>
-      <c r="J23" s="43" t="n">
+      <c r="J23" s="42" t="n">
         <v>0.1011660421823342</v>
       </c>
-      <c r="K23" s="23" t="n">
+      <c r="K23" s="24" t="n">
         <v>-0.05107492631620144</v>
       </c>
-      <c r="L23" s="25" t="n">
+      <c r="L23" s="26" t="n">
         <v>0.04334748322236551</v>
       </c>
-      <c r="M23" s="52" t="n">
+      <c r="M23" s="49" t="n">
         <v>-0.006306117586210347</v>
       </c>
-      <c r="N23" s="23" t="n">
+      <c r="N23" s="24" t="n">
         <v>-0.05105274647605658</v>
       </c>
       <c r="O23" s="6" t="n">
@@ -3639,19 +3639,19 @@
       <c r="P23" s="6" t="n">
         <v>0.009341492388836616</v>
       </c>
-      <c r="Q23" s="41" t="n">
-        <v>-0.07086008786348034</v>
-      </c>
-      <c r="R23" s="35" t="n">
+      <c r="Q23" s="18" t="n">
+        <v>-0.08763974257555075</v>
+      </c>
+      <c r="R23" s="37" t="n">
         <v>0.06654288849507588</v>
       </c>
-      <c r="S23" s="37" t="n">
+      <c r="S23" s="39" t="n">
         <v>0.01874066134949105</v>
       </c>
       <c r="T23" s="11" t="n">
         <v>0.0724166782993685</v>
       </c>
-      <c r="U23" s="36" t="n">
+      <c r="U23" s="51" t="n">
         <v>0.09139025126336589</v>
       </c>
       <c r="V23" s="5" t="n">
@@ -3666,19 +3666,19 @@
       <c r="Y23" s="18" t="n">
         <v>-0.09144699059737915</v>
       </c>
-      <c r="Z23" s="34" t="n">
-        <v>0.05925455555266448</v>
-      </c>
-      <c r="AA23" s="43" t="n">
-        <v>0.1049045379578558</v>
-      </c>
-      <c r="AB23" s="35" t="n">
-        <v>0.07154281870764571</v>
-      </c>
-      <c r="AC23" s="37" t="n">
+      <c r="Z23" s="26" t="n">
+        <v>0.04938527297465272</v>
+      </c>
+      <c r="AA23" s="51" t="n">
+        <v>0.08677459132896805</v>
+      </c>
+      <c r="AB23" s="11" t="n">
+        <v>0.07365063244553523</v>
+      </c>
+      <c r="AC23" s="39" t="n">
         <v>0.02009999295948238</v>
       </c>
-      <c r="AD23" s="41" t="n">
+      <c r="AD23" s="34" t="n">
         <v>-0.06677465596063462</v>
       </c>
       <c r="AE23" s="21" t="n">
@@ -3690,16 +3690,16 @@
       <c r="AG23" s="20" t="n">
         <v>-0.02908581058894899</v>
       </c>
-      <c r="AH23" s="23" t="n">
+      <c r="AH23" s="24" t="n">
         <v>-0.055823074853563</v>
       </c>
       <c r="AI23" s="11" t="n">
         <v>0.07246546499804656</v>
       </c>
-      <c r="AJ23" s="24" t="n">
+      <c r="AJ23" s="25" t="n">
         <v>-0.04278020717381267</v>
       </c>
-      <c r="AK23" s="52" t="n">
+      <c r="AK23" s="49" t="n">
         <v>-0.006300900497498593</v>
       </c>
     </row>
@@ -3715,10 +3715,10 @@
       <c r="C24" s="20" t="n">
         <v>-0.03096992940874325</v>
       </c>
-      <c r="D24" s="27" t="n">
+      <c r="D24" s="28" t="n">
         <v>-0.01489513082743957</v>
       </c>
-      <c r="E24" s="26" t="n">
+      <c r="E24" s="27" t="n">
         <v>-0.09509768961553364</v>
       </c>
       <c r="F24" s="20" t="n">
@@ -3733,13 +3733,13 @@
       <c r="I24" s="5" t="n">
         <v>-0.04879276646584482</v>
       </c>
-      <c r="J24" s="67" t="n">
+      <c r="J24" s="66" t="n">
         <v>0.1308305471161241</v>
       </c>
       <c r="K24" s="17" t="n">
         <v>0.002207441662954154</v>
       </c>
-      <c r="L24" s="52" t="n">
+      <c r="L24" s="49" t="n">
         <v>-0.005207576466180927</v>
       </c>
       <c r="M24" s="17" t="n">
@@ -3751,16 +3751,16 @@
       <c r="O24" s="5" t="n">
         <v>-0.04565992130226806</v>
       </c>
-      <c r="P24" s="23" t="n">
+      <c r="P24" s="24" t="n">
         <v>-0.05344939926857267</v>
       </c>
-      <c r="Q24" s="12" t="n">
-        <v>0.03402679500582826</v>
+      <c r="Q24" s="41" t="n">
+        <v>0.04287993492512188</v>
       </c>
       <c r="R24" s="12" t="n">
         <v>0.03104225240060802</v>
       </c>
-      <c r="S24" s="52" t="n">
+      <c r="S24" s="49" t="n">
         <v>-0.00490389318138395</v>
       </c>
       <c r="T24" s="17" t="n">
@@ -3778,34 +3778,34 @@
       <c r="X24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y24" s="52" t="n">
+      <c r="Y24" s="49" t="n">
         <v>-0.004856724533182397</v>
       </c>
       <c r="Z24" s="5" t="n">
-        <v>-0.0464838461521714</v>
-      </c>
-      <c r="AA24" s="42" t="n">
-        <v>-0.1014077743237547</v>
-      </c>
-      <c r="AB24" s="26" t="n">
-        <v>-0.09415402871381584</v>
-      </c>
-      <c r="AC24" s="39" t="n">
+        <v>-0.04845453536584199</v>
+      </c>
+      <c r="AA24" s="18" t="n">
+        <v>-0.08861925356086138</v>
+      </c>
+      <c r="AB24" s="57" t="n">
+        <v>-0.1022070950950185</v>
+      </c>
+      <c r="AC24" s="41" t="n">
         <v>0.0426368870646001</v>
       </c>
       <c r="AD24" s="21" t="n">
         <v>0.1116785840489753</v>
       </c>
-      <c r="AE24" s="25" t="n">
+      <c r="AE24" s="26" t="n">
         <v>0.04343357328605167</v>
       </c>
       <c r="AF24" s="12" t="n">
         <v>0.03209455762255352</v>
       </c>
-      <c r="AG24" s="39" t="n">
+      <c r="AG24" s="41" t="n">
         <v>0.03846350926731087</v>
       </c>
-      <c r="AH24" s="39" t="n">
+      <c r="AH24" s="41" t="n">
         <v>0.03748378069880461</v>
       </c>
       <c r="AI24" s="5" t="n">
@@ -3827,10 +3827,10 @@
       <c r="B25" s="20" t="n">
         <v>-0.02870990100466269</v>
       </c>
-      <c r="C25" s="34" t="n">
+      <c r="C25" s="36" t="n">
         <v>0.06323787727343431</v>
       </c>
-      <c r="D25" s="33" t="n">
+      <c r="D25" s="35" t="n">
         <v>-0.080063687907868</v>
       </c>
       <c r="E25" s="12" t="n">
@@ -3839,79 +3839,79 @@
       <c r="F25" s="18" t="n">
         <v>-0.08630744509350671</v>
       </c>
-      <c r="G25" s="52" t="n">
+      <c r="G25" s="49" t="n">
         <v>-0.00338504652390165</v>
       </c>
       <c r="H25" s="16" t="n">
         <v>0.1517771941961193</v>
       </c>
-      <c r="I25" s="32" t="n">
+      <c r="I25" s="33" t="n">
         <v>-0.1597670810447546</v>
       </c>
       <c r="J25" s="10" t="n">
         <v>0.02337136285116752</v>
       </c>
-      <c r="K25" s="44" t="n">
+      <c r="K25" s="43" t="n">
         <v>0.1718531293848588</v>
       </c>
-      <c r="L25" s="41" t="n">
+      <c r="L25" s="34" t="n">
         <v>-0.07119960109027877</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>0.01008171651265797</v>
       </c>
-      <c r="N25" s="43" t="n">
+      <c r="N25" s="42" t="n">
         <v>0.1059446008258293</v>
       </c>
-      <c r="O25" s="52" t="n">
+      <c r="O25" s="49" t="n">
         <v>-0.00629539946802646</v>
       </c>
-      <c r="P25" s="45" t="n">
+      <c r="P25" s="56" t="n">
         <v>-0.112680397228369</v>
       </c>
-      <c r="Q25" s="67" t="n">
-        <v>0.1355071478683295</v>
-      </c>
-      <c r="R25" s="24" t="n">
+      <c r="Q25" s="46" t="n">
+        <v>0.1605157606797203</v>
+      </c>
+      <c r="R25" s="25" t="n">
         <v>-0.0390963780589159</v>
       </c>
-      <c r="S25" s="24" t="n">
+      <c r="S25" s="25" t="n">
         <v>-0.03977229990693065</v>
       </c>
-      <c r="T25" s="51" t="n">
+      <c r="T25" s="48" t="n">
         <v>-0.145102492256221</v>
       </c>
-      <c r="U25" s="34" t="n">
+      <c r="U25" s="36" t="n">
         <v>0.06129583355803089</v>
       </c>
-      <c r="V25" s="35" t="n">
+      <c r="V25" s="37" t="n">
         <v>0.07019097876097732</v>
       </c>
       <c r="W25" s="18" t="n">
         <v>-0.09144699059737915</v>
       </c>
-      <c r="X25" s="52" t="n">
+      <c r="X25" s="49" t="n">
         <v>-0.004856724533182397</v>
       </c>
       <c r="Y25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z25" s="60" t="n">
-        <v>-0.1527931092234328</v>
-      </c>
-      <c r="AA25" s="22" t="n">
-        <v>-0.1419055092059786</v>
-      </c>
-      <c r="AB25" s="22" t="n">
-        <v>-0.1379437008795523</v>
-      </c>
-      <c r="AC25" s="29" t="n">
+      <c r="Z25" s="50" t="n">
+        <v>-0.1684492279739226</v>
+      </c>
+      <c r="AA25" s="50" t="n">
+        <v>-0.1703483497803835</v>
+      </c>
+      <c r="AB25" s="50" t="n">
+        <v>-0.1653379469452764</v>
+      </c>
+      <c r="AC25" s="30" t="n">
         <v>-0.01132096365530058</v>
       </c>
-      <c r="AD25" s="44" t="n">
+      <c r="AD25" s="43" t="n">
         <v>0.1727244955376263</v>
       </c>
-      <c r="AE25" s="37" t="n">
+      <c r="AE25" s="39" t="n">
         <v>0.01625742087394261</v>
       </c>
       <c r="AF25" s="10" t="n">
@@ -3940,112 +3940,112 @@
         </is>
       </c>
       <c r="B26" s="22" t="n">
-        <v>-0.1397908509473057</v>
-      </c>
-      <c r="C26" s="36" t="n">
-        <v>0.09250008656069825</v>
-      </c>
-      <c r="D26" s="42" t="n">
-        <v>-0.1051938890496072</v>
+        <v>-0.1404469928295471</v>
+      </c>
+      <c r="C26" s="38" t="n">
+        <v>0.08591049446186118</v>
+      </c>
+      <c r="D26" s="27" t="n">
+        <v>-0.09676463072052433</v>
       </c>
       <c r="E26" s="16" t="n">
-        <v>0.154162779266821</v>
-      </c>
-      <c r="F26" s="11" t="n">
-        <v>0.07551199316612175</v>
-      </c>
-      <c r="G26" s="17" t="n">
-        <v>0.003713942307646434</v>
-      </c>
-      <c r="H26" s="49" t="n">
-        <v>-0.1330013850052902</v>
-      </c>
-      <c r="I26" s="4" t="n">
-        <v>-0.3101374620143763</v>
-      </c>
-      <c r="J26" s="33" t="n">
-        <v>-0.08484365854540926</v>
-      </c>
-      <c r="K26" s="57" t="n">
-        <v>-0.2037121342349327</v>
+        <v>0.1551441296215024</v>
+      </c>
+      <c r="F26" s="51" t="n">
+        <v>0.08835367844930647</v>
+      </c>
+      <c r="G26" s="30" t="n">
+        <v>-0.007397984999315249</v>
+      </c>
+      <c r="H26" s="23" t="n">
+        <v>-0.1354883017868564</v>
+      </c>
+      <c r="I26" s="61" t="n">
+        <v>-0.2999545272143476</v>
+      </c>
+      <c r="J26" s="27" t="n">
+        <v>-0.09378803243017687</v>
+      </c>
+      <c r="K26" s="70" t="n">
+        <v>-0.1818414517610637</v>
       </c>
       <c r="L26" s="72" t="n">
-        <v>-0.1759318032002895</v>
-      </c>
-      <c r="M26" s="24" t="n">
-        <v>-0.03652089233859294</v>
-      </c>
-      <c r="N26" s="6" t="n">
-        <v>0.008699269523669947</v>
-      </c>
-      <c r="O26" s="53" t="n">
-        <v>-0.1698086011024363</v>
-      </c>
-      <c r="P26" s="59" t="n">
-        <v>0.2614421409575814</v>
-      </c>
-      <c r="Q26" s="80" t="n">
-        <v>-0.3993396776811775</v>
-      </c>
-      <c r="R26" s="21" t="n">
-        <v>0.1096039762496766</v>
-      </c>
-      <c r="S26" s="39" t="n">
-        <v>0.04150737910471401</v>
-      </c>
-      <c r="T26" s="55" t="n">
-        <v>0.3423722684630154</v>
-      </c>
-      <c r="U26" s="46" t="n">
-        <v>0.139130481322611</v>
-      </c>
-      <c r="V26" s="41" t="n">
-        <v>-0.07065548024139701</v>
-      </c>
-      <c r="W26" s="34" t="n">
-        <v>0.05925455555266448</v>
+        <v>-0.1776603414467421</v>
+      </c>
+      <c r="M26" s="5" t="n">
+        <v>-0.04677468290081725</v>
+      </c>
+      <c r="N26" s="49" t="n">
+        <v>-0.0007113993142388575</v>
+      </c>
+      <c r="O26" s="50" t="n">
+        <v>-0.1663490784177249</v>
+      </c>
+      <c r="P26" s="77" t="n">
+        <v>0.2851321437802544</v>
+      </c>
+      <c r="Q26" s="81" t="n">
+        <v>-0.4282678423872255</v>
+      </c>
+      <c r="R26" s="51" t="n">
+        <v>0.08952066634678404</v>
+      </c>
+      <c r="S26" s="41" t="n">
+        <v>0.04174213894054818</v>
+      </c>
+      <c r="T26" s="53" t="n">
+        <v>0.3402913564894018</v>
+      </c>
+      <c r="U26" s="44" t="n">
+        <v>0.138327543286752</v>
+      </c>
+      <c r="V26" s="34" t="n">
+        <v>-0.06972940938194061</v>
+      </c>
+      <c r="W26" s="26" t="n">
+        <v>0.04938527297465272</v>
       </c>
       <c r="X26" s="5" t="n">
-        <v>-0.0464838461521714</v>
-      </c>
-      <c r="Y26" s="60" t="n">
-        <v>-0.1527931092234328</v>
+        <v>-0.04845453536584199</v>
+      </c>
+      <c r="Y26" s="50" t="n">
+        <v>-0.1684492279739226</v>
       </c>
       <c r="Z26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AA26" s="83" t="n">
-        <v>0.8799276542429257</v>
-      </c>
-      <c r="AB26" s="84" t="n">
-        <v>0.8707225114224627</v>
-      </c>
-      <c r="AC26" s="27" t="n">
-        <v>-0.02045856744885076</v>
-      </c>
-      <c r="AD26" s="53" t="n">
-        <v>-0.1659372402493418</v>
-      </c>
-      <c r="AE26" s="41" t="n">
-        <v>-0.07136032259382645</v>
-      </c>
-      <c r="AF26" s="85" t="n">
-        <v>0.29371576640681</v>
-      </c>
-      <c r="AG26" s="16" t="n">
-        <v>0.1547813915811686</v>
+      <c r="AA26" s="87" t="n">
+        <v>0.8942065199461021</v>
+      </c>
+      <c r="AB26" s="88" t="n">
+        <v>0.8846050738674917</v>
+      </c>
+      <c r="AC26" s="13" t="n">
+        <v>-0.02417735174108582</v>
+      </c>
+      <c r="AD26" s="50" t="n">
+        <v>-0.1671306891814049</v>
+      </c>
+      <c r="AE26" s="18" t="n">
+        <v>-0.09048155142273186</v>
+      </c>
+      <c r="AF26" s="77" t="n">
+        <v>0.2809121338605862</v>
+      </c>
+      <c r="AG26" s="46" t="n">
+        <v>0.1619876889170528</v>
       </c>
       <c r="AH26" s="8" t="n">
-        <v>0.125912763452469</v>
-      </c>
-      <c r="AI26" s="12" t="n">
-        <v>0.03198460713636557</v>
-      </c>
-      <c r="AJ26" s="86" t="n">
-        <v>-0.2302562908179865</v>
-      </c>
-      <c r="AK26" s="5" t="n">
-        <v>-0.05005482816632684</v>
+        <v>0.1272197163089809</v>
+      </c>
+      <c r="AI26" s="10" t="n">
+        <v>0.02729595069767032</v>
+      </c>
+      <c r="AJ26" s="65" t="n">
+        <v>-0.217093195215605</v>
+      </c>
+      <c r="AK26" s="34" t="n">
+        <v>-0.06636024271693847</v>
       </c>
     </row>
     <row r="27">
@@ -4054,113 +4054,113 @@
           <t>G2</t>
         </is>
       </c>
-      <c r="B27" s="22" t="n">
-        <v>-0.1384301236851926</v>
-      </c>
-      <c r="C27" s="36" t="n">
-        <v>0.09095791687584819</v>
-      </c>
-      <c r="D27" s="42" t="n">
-        <v>-0.1006984688584487</v>
-      </c>
-      <c r="E27" s="16" t="n">
-        <v>0.1515770449047919</v>
-      </c>
-      <c r="F27" s="34" t="n">
-        <v>0.05951176262694059</v>
-      </c>
-      <c r="G27" s="17" t="n">
-        <v>0.002372757896205239</v>
-      </c>
-      <c r="H27" s="42" t="n">
-        <v>-0.1031359105043293</v>
-      </c>
-      <c r="I27" s="62" t="n">
-        <v>-0.270543831746926</v>
-      </c>
-      <c r="J27" s="33" t="n">
-        <v>-0.08297586670147716</v>
-      </c>
-      <c r="K27" s="49" t="n">
-        <v>-0.1364690935012688</v>
-      </c>
-      <c r="L27" s="32" t="n">
-        <v>-0.1594667257781564</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>-0.05003869715992464</v>
-      </c>
-      <c r="N27" s="37" t="n">
-        <v>0.01913308077847716</v>
-      </c>
-      <c r="O27" s="51" t="n">
-        <v>-0.1508734850484202</v>
-      </c>
-      <c r="P27" s="77" t="n">
-        <v>0.2497189365222261</v>
-      </c>
-      <c r="Q27" s="80" t="n">
-        <v>-0.4016441682511349</v>
-      </c>
-      <c r="R27" s="75" t="n">
-        <v>0.115304756824427</v>
-      </c>
-      <c r="S27" s="21" t="n">
-        <v>0.1089180466377387</v>
-      </c>
-      <c r="T27" s="69" t="n">
-        <v>0.3291353499858888</v>
+      <c r="B27" s="23" t="n">
+        <v>-0.13463032761303</v>
+      </c>
+      <c r="C27" s="11" t="n">
+        <v>0.07560431084715355</v>
+      </c>
+      <c r="D27" s="27" t="n">
+        <v>-0.09905952160715378</v>
+      </c>
+      <c r="E27" s="46" t="n">
+        <v>0.1602643042123492</v>
+      </c>
+      <c r="F27" s="11" t="n">
+        <v>0.0740209387539907</v>
+      </c>
+      <c r="G27" s="30" t="n">
+        <v>-0.007850737511261793</v>
+      </c>
+      <c r="H27" s="56" t="n">
+        <v>-0.1104835143908107</v>
+      </c>
+      <c r="I27" s="60" t="n">
+        <v>-0.255120801959152</v>
+      </c>
+      <c r="J27" s="27" t="n">
+        <v>-0.09528529702431342</v>
+      </c>
+      <c r="K27" s="57" t="n">
+        <v>-0.1068277185090716</v>
+      </c>
+      <c r="L27" s="50" t="n">
+        <v>-0.1659928058385806</v>
+      </c>
+      <c r="M27" s="20" t="n">
+        <v>-0.03099710962609244</v>
+      </c>
+      <c r="N27" s="49" t="n">
+        <v>-0.001519692911524025</v>
+      </c>
+      <c r="O27" s="33" t="n">
+        <v>-0.1584266858906406</v>
+      </c>
+      <c r="P27" s="78" t="n">
+        <v>0.2663543240695661</v>
+      </c>
+      <c r="Q27" s="82" t="n">
+        <v>-0.4365559370777717</v>
+      </c>
+      <c r="R27" s="45" t="n">
+        <v>0.09523847118030428</v>
+      </c>
+      <c r="S27" s="36" t="n">
+        <v>0.06404896911447046</v>
+      </c>
+      <c r="T27" s="85" t="n">
+        <v>0.3259203424559412</v>
       </c>
       <c r="U27" s="8" t="n">
-        <v>0.1226059759068213</v>
-      </c>
-      <c r="V27" s="23" t="n">
-        <v>-0.05544213998072776</v>
-      </c>
-      <c r="W27" s="43" t="n">
-        <v>0.1049045379578558</v>
-      </c>
-      <c r="X27" s="42" t="n">
-        <v>-0.1014077743237547</v>
-      </c>
-      <c r="Y27" s="22" t="n">
-        <v>-0.1419055092059786</v>
-      </c>
-      <c r="Z27" s="83" t="n">
-        <v>0.8799276542429257</v>
+        <v>0.1238788989270821</v>
+      </c>
+      <c r="V27" s="15" t="n">
+        <v>-0.07437518162124672</v>
+      </c>
+      <c r="W27" s="51" t="n">
+        <v>0.08677459132896805</v>
+      </c>
+      <c r="X27" s="18" t="n">
+        <v>-0.08861925356086138</v>
+      </c>
+      <c r="Y27" s="50" t="n">
+        <v>-0.1703483497803835</v>
+      </c>
+      <c r="Z27" s="87" t="n">
+        <v>0.8942065199461021</v>
       </c>
       <c r="AA27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AB27" s="87" t="n">
-        <v>0.9362722432005637</v>
-      </c>
-      <c r="AC27" s="20" t="n">
-        <v>-0.02889256973054559</v>
-      </c>
-      <c r="AD27" s="74" t="n">
-        <v>-0.194650482349352</v>
-      </c>
-      <c r="AE27" s="26" t="n">
-        <v>-0.09568870870808949</v>
-      </c>
-      <c r="AF27" s="88" t="n">
-        <v>0.274537913533048</v>
-      </c>
-      <c r="AG27" s="44" t="n">
-        <v>0.168945090095275</v>
-      </c>
-      <c r="AH27" s="67" t="n">
-        <v>0.1304463663001627</v>
+      <c r="AB27" s="89" t="n">
+        <v>0.9438581422069129</v>
+      </c>
+      <c r="AC27" s="13" t="n">
+        <v>-0.02803725328743492</v>
+      </c>
+      <c r="AD27" s="72" t="n">
+        <v>-0.1733304607177178</v>
+      </c>
+      <c r="AE27" s="57" t="n">
+        <v>-0.1027615168414684</v>
+      </c>
+      <c r="AF27" s="79" t="n">
+        <v>0.2749580427497337</v>
+      </c>
+      <c r="AG27" s="43" t="n">
+        <v>0.1688381842253357</v>
+      </c>
+      <c r="AH27" s="66" t="n">
+        <v>0.1308498657283547</v>
       </c>
       <c r="AI27" s="17" t="n">
-        <v>0.005072620504554957</v>
-      </c>
-      <c r="AJ27" s="32" t="n">
-        <v>-0.1643387363142367</v>
-      </c>
-      <c r="AK27" s="24" t="n">
-        <v>-0.03594021577213144</v>
+        <v>0.002622338911806769</v>
+      </c>
+      <c r="AJ27" s="72" t="n">
+        <v>-0.1739073641261797</v>
+      </c>
+      <c r="AK27" s="9" t="n">
+        <v>-0.05742273517956065</v>
       </c>
     </row>
     <row r="28">
@@ -4170,112 +4170,112 @@
         </is>
       </c>
       <c r="B28" s="19" t="n">
-        <v>-0.1193089587898973</v>
-      </c>
-      <c r="C28" s="36" t="n">
-        <v>0.0892100246652307</v>
-      </c>
-      <c r="D28" s="28" t="n">
-        <v>-0.1250009297624394</v>
-      </c>
-      <c r="E28" s="14" t="n">
-        <v>0.1489900332888015</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>0.05679021937908581</v>
-      </c>
-      <c r="G28" s="52" t="n">
-        <v>-0.001321712071493832</v>
-      </c>
-      <c r="H28" s="18" t="n">
-        <v>-0.09166901108966168</v>
-      </c>
-      <c r="I28" s="63" t="n">
-        <v>-0.3021336434588427</v>
-      </c>
-      <c r="J28" s="42" t="n">
-        <v>-0.1035070636088252</v>
-      </c>
-      <c r="K28" s="45" t="n">
-        <v>-0.1130162017619328</v>
-      </c>
-      <c r="L28" s="30" t="n">
-        <v>-0.18927552270676</v>
+        <v>-0.1204557132266749</v>
+      </c>
+      <c r="C28" s="38" t="n">
+        <v>0.0821074106937954</v>
+      </c>
+      <c r="D28" s="29" t="n">
+        <v>-0.1233650298512508</v>
+      </c>
+      <c r="E28" s="16" t="n">
+        <v>0.1550893934001631</v>
+      </c>
+      <c r="F28" s="11" t="n">
+        <v>0.07660559821565673</v>
+      </c>
+      <c r="G28" s="28" t="n">
+        <v>-0.01589687071039914</v>
+      </c>
+      <c r="H28" s="27" t="n">
+        <v>-0.1001132356174426</v>
+      </c>
+      <c r="I28" s="62" t="n">
+        <v>-0.272998114707685</v>
+      </c>
+      <c r="J28" s="19" t="n">
+        <v>-0.1163035544176122</v>
+      </c>
+      <c r="K28" s="18" t="n">
+        <v>-0.09288784708302676</v>
+      </c>
+      <c r="L28" s="50" t="n">
+        <v>-0.1714737576429668</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>-0.04636863428955382</v>
-      </c>
-      <c r="N28" s="10" t="n">
-        <v>0.02429330824359775</v>
-      </c>
-      <c r="O28" s="51" t="n">
-        <v>-0.1465807737460226</v>
-      </c>
-      <c r="P28" s="56" t="n">
-        <v>0.2415331513389613</v>
-      </c>
-      <c r="Q28" s="54" t="n">
-        <v>-0.4169479380651471</v>
-      </c>
-      <c r="R28" s="43" t="n">
-        <v>0.1065659878831418</v>
-      </c>
-      <c r="S28" s="35" t="n">
-        <v>0.06629515577409571</v>
-      </c>
-      <c r="T28" s="55" t="n">
-        <v>0.3418207242958347</v>
-      </c>
-      <c r="U28" s="48" t="n">
-        <v>0.1604388539412006</v>
-      </c>
-      <c r="V28" s="23" t="n">
-        <v>-0.05726089401833652</v>
-      </c>
-      <c r="W28" s="35" t="n">
-        <v>0.07154281870764571</v>
-      </c>
-      <c r="X28" s="26" t="n">
-        <v>-0.09415402871381584</v>
-      </c>
-      <c r="Y28" s="22" t="n">
-        <v>-0.1379437008795523</v>
-      </c>
-      <c r="Z28" s="84" t="n">
-        <v>0.8707225114224627</v>
-      </c>
-      <c r="AA28" s="87" t="n">
-        <v>0.9362722432005637</v>
+        <v>-0.04310096780213529</v>
+      </c>
+      <c r="N28" s="17" t="n">
+        <v>0.004042579668098747</v>
+      </c>
+      <c r="O28" s="23" t="n">
+        <v>-0.1319262220318881</v>
+      </c>
+      <c r="P28" s="79" t="n">
+        <v>0.2743322109699638</v>
+      </c>
+      <c r="Q28" s="83" t="n">
+        <v>-0.4535193425442514</v>
+      </c>
+      <c r="R28" s="38" t="n">
+        <v>0.08544973340854901</v>
+      </c>
+      <c r="S28" s="26" t="n">
+        <v>0.04969940273600416</v>
+      </c>
+      <c r="T28" s="53" t="n">
+        <v>0.3400299464674595</v>
+      </c>
+      <c r="U28" s="44" t="n">
+        <v>0.1433689504964123</v>
+      </c>
+      <c r="V28" s="9" t="n">
+        <v>-0.06177485515349649</v>
+      </c>
+      <c r="W28" s="11" t="n">
+        <v>0.07365063244553523</v>
+      </c>
+      <c r="X28" s="57" t="n">
+        <v>-0.1022070950950185</v>
+      </c>
+      <c r="Y28" s="50" t="n">
+        <v>-0.1653379469452764</v>
+      </c>
+      <c r="Z28" s="88" t="n">
+        <v>0.8846050738674917</v>
+      </c>
+      <c r="AA28" s="89" t="n">
+        <v>0.9438581422069129</v>
       </c>
       <c r="AB28" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AC28" s="24" t="n">
-        <v>-0.03814898713267789</v>
-      </c>
-      <c r="AD28" s="89" t="n">
-        <v>-0.1820228325303821</v>
-      </c>
-      <c r="AE28" s="18" t="n">
-        <v>-0.08712105501550835</v>
-      </c>
-      <c r="AF28" s="90" t="n">
-        <v>0.3000697957490761</v>
-      </c>
-      <c r="AG28" s="91" t="n">
-        <v>0.1828349566727963</v>
-      </c>
-      <c r="AH28" s="21" t="n">
-        <v>0.1119460744831105</v>
-      </c>
-      <c r="AI28" s="6" t="n">
-        <v>0.0103388509065759</v>
-      </c>
-      <c r="AJ28" s="74" t="n">
-        <v>-0.1996413395862517</v>
+      <c r="AC28" s="20" t="n">
+        <v>-0.03563349307077233</v>
+      </c>
+      <c r="AD28" s="31" t="n">
+        <v>-0.189462885456952</v>
+      </c>
+      <c r="AE28" s="19" t="n">
+        <v>-0.1208968520174939</v>
+      </c>
+      <c r="AF28" s="78" t="n">
+        <v>0.2679933147971113</v>
+      </c>
+      <c r="AG28" s="43" t="n">
+        <v>0.1707083889158999</v>
+      </c>
+      <c r="AH28" s="8" t="n">
+        <v>0.1241453813273792</v>
+      </c>
+      <c r="AI28" s="49" t="n">
+        <v>-0.002640328128345366</v>
+      </c>
+      <c r="AJ28" s="72" t="n">
+        <v>-0.173057908705515</v>
       </c>
       <c r="AK28" s="24" t="n">
-        <v>-0.03863735724104476</v>
+        <v>-0.05532829139660413</v>
       </c>
     </row>
     <row r="29">
@@ -4284,34 +4284,34 @@
           <t>sup</t>
         </is>
       </c>
-      <c r="B29" s="23" t="n">
+      <c r="B29" s="24" t="n">
         <v>-0.05319675520777106</v>
       </c>
-      <c r="C29" s="35" t="n">
+      <c r="C29" s="37" t="n">
         <v>0.06561904078650124</v>
       </c>
       <c r="D29" s="20" t="n">
         <v>-0.03045339380698759</v>
       </c>
-      <c r="E29" s="37" t="n">
+      <c r="E29" s="39" t="n">
         <v>0.02082436484938562</v>
       </c>
-      <c r="F29" s="52" t="n">
+      <c r="F29" s="49" t="n">
         <v>-0.001677441937244176</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>-0.0238826140139408</v>
       </c>
-      <c r="H29" s="25" t="n">
+      <c r="H29" s="26" t="n">
         <v>0.04655114415707027</v>
       </c>
-      <c r="I29" s="26" t="n">
+      <c r="I29" s="27" t="n">
         <v>-0.1003400191133688</v>
       </c>
-      <c r="J29" s="42" t="n">
+      <c r="J29" s="57" t="n">
         <v>-0.1032211279464281</v>
       </c>
-      <c r="K29" s="60" t="n">
+      <c r="K29" s="59" t="n">
         <v>-0.1561609883118394</v>
       </c>
       <c r="L29" s="6" t="n">
@@ -4320,17 +4320,17 @@
       <c r="M29" s="11" t="n">
         <v>0.07213128981562872</v>
       </c>
-      <c r="N29" s="52" t="n">
+      <c r="N29" s="49" t="n">
         <v>-0.003826911120369322</v>
       </c>
-      <c r="O29" s="24" t="n">
+      <c r="O29" s="25" t="n">
         <v>-0.04109694128826988</v>
       </c>
       <c r="P29" s="14" t="n">
         <v>0.1497147677301451</v>
       </c>
-      <c r="Q29" s="37" t="n">
-        <v>0.01978361859988955</v>
+      <c r="Q29" s="17" t="n">
+        <v>0.004630095797295051</v>
       </c>
       <c r="R29" s="17" t="n">
         <v>0.003758967527575351</v>
@@ -4347,49 +4347,49 @@
       <c r="V29" s="18" t="n">
         <v>-0.08925516137473936</v>
       </c>
-      <c r="W29" s="37" t="n">
+      <c r="W29" s="39" t="n">
         <v>0.02009999295948238</v>
       </c>
-      <c r="X29" s="39" t="n">
+      <c r="X29" s="41" t="n">
         <v>0.0426368870646001</v>
       </c>
-      <c r="Y29" s="29" t="n">
+      <c r="Y29" s="30" t="n">
         <v>-0.01132096365530058</v>
       </c>
-      <c r="Z29" s="27" t="n">
-        <v>-0.02045856744885076</v>
-      </c>
-      <c r="AA29" s="20" t="n">
-        <v>-0.02889256973054559</v>
-      </c>
-      <c r="AB29" s="24" t="n">
-        <v>-0.03814898713267789</v>
+      <c r="Z29" s="13" t="n">
+        <v>-0.02417735174108582</v>
+      </c>
+      <c r="AA29" s="13" t="n">
+        <v>-0.02803725328743492</v>
+      </c>
+      <c r="AB29" s="20" t="n">
+        <v>-0.03563349307077233</v>
       </c>
       <c r="AC29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD29" s="41" t="n">
+      <c r="AD29" s="34" t="n">
         <v>-0.06771568702678195</v>
       </c>
-      <c r="AE29" s="37" t="n">
+      <c r="AE29" s="39" t="n">
         <v>0.02047641202610278</v>
       </c>
       <c r="AF29" s="14" t="n">
         <v>0.144500795672003</v>
       </c>
-      <c r="AG29" s="39" t="n">
+      <c r="AG29" s="41" t="n">
         <v>0.03829050473835216</v>
       </c>
-      <c r="AH29" s="34" t="n">
+      <c r="AH29" s="36" t="n">
         <v>0.06107619563186606</v>
       </c>
       <c r="AI29" s="6" t="n">
         <v>0.01086439840626259</v>
       </c>
-      <c r="AJ29" s="52" t="n">
+      <c r="AJ29" s="49" t="n">
         <v>-0.004046648437217065</v>
       </c>
-      <c r="AK29" s="23" t="n">
+      <c r="AK29" s="24" t="n">
         <v>-0.05693155156280745</v>
       </c>
     </row>
@@ -4399,34 +4399,34 @@
           <t>alc</t>
         </is>
       </c>
-      <c r="B30" s="24" t="n">
+      <c r="B30" s="25" t="n">
         <v>-0.03884263164299523</v>
       </c>
-      <c r="C30" s="37" t="n">
+      <c r="C30" s="39" t="n">
         <v>0.01563549780651798</v>
       </c>
-      <c r="D30" s="43" t="n">
+      <c r="D30" s="42" t="n">
         <v>0.1074719240568926</v>
       </c>
-      <c r="E30" s="23" t="n">
+      <c r="E30" s="24" t="n">
         <v>-0.05032773104377516</v>
       </c>
       <c r="F30" s="17" t="n">
         <v>0.004577647799041349</v>
       </c>
-      <c r="G30" s="27" t="n">
+      <c r="G30" s="28" t="n">
         <v>-0.01882815668735123</v>
       </c>
       <c r="H30" s="10" t="n">
         <v>0.02674713751693448</v>
       </c>
-      <c r="I30" s="39" t="n">
+      <c r="I30" s="41" t="n">
         <v>0.03682489812699019</v>
       </c>
-      <c r="J30" s="68" t="n">
+      <c r="J30" s="67" t="n">
         <v>0.3205199654044934</v>
       </c>
-      <c r="K30" s="46" t="n">
+      <c r="K30" s="44" t="n">
         <v>0.1382451421538816</v>
       </c>
       <c r="L30" s="7" t="n">
@@ -4438,70 +4438,70 @@
       <c r="N30" s="18" t="n">
         <v>-0.08712600303931989</v>
       </c>
-      <c r="O30" s="35" t="n">
+      <c r="O30" s="37" t="n">
         <v>0.0698624491297566</v>
       </c>
-      <c r="P30" s="78" t="n">
+      <c r="P30" s="80" t="n">
         <v>-0.2503100595158247</v>
       </c>
-      <c r="Q30" s="43" t="n">
-        <v>0.1019799101781613</v>
-      </c>
-      <c r="R30" s="29" t="n">
+      <c r="Q30" s="42" t="n">
+        <v>0.1019144113645762</v>
+      </c>
+      <c r="R30" s="30" t="n">
         <v>-0.007654111617664317</v>
       </c>
       <c r="S30" s="15" t="n">
         <v>-0.07517356598522247</v>
       </c>
-      <c r="T30" s="42" t="n">
+      <c r="T30" s="57" t="n">
         <v>-0.102342504717983</v>
       </c>
       <c r="U30" s="7" t="n">
         <v>0.0545219439448897</v>
       </c>
-      <c r="V30" s="29" t="n">
+      <c r="V30" s="30" t="n">
         <v>-0.01052458246166815</v>
       </c>
-      <c r="W30" s="41" t="n">
+      <c r="W30" s="34" t="n">
         <v>-0.06677465596063462</v>
       </c>
       <c r="X30" s="21" t="n">
         <v>0.1116785840489753</v>
       </c>
-      <c r="Y30" s="44" t="n">
+      <c r="Y30" s="43" t="n">
         <v>0.1727244955376263</v>
       </c>
-      <c r="Z30" s="53" t="n">
-        <v>-0.1659372402493418</v>
-      </c>
-      <c r="AA30" s="74" t="n">
-        <v>-0.194650482349352</v>
-      </c>
-      <c r="AB30" s="89" t="n">
-        <v>-0.1820228325303821</v>
-      </c>
-      <c r="AC30" s="41" t="n">
+      <c r="Z30" s="50" t="n">
+        <v>-0.1671306891814049</v>
+      </c>
+      <c r="AA30" s="72" t="n">
+        <v>-0.1733304607177178</v>
+      </c>
+      <c r="AB30" s="31" t="n">
+        <v>-0.189462885456952</v>
+      </c>
+      <c r="AC30" s="34" t="n">
         <v>-0.06771568702678195</v>
       </c>
       <c r="AD30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AE30" s="59" t="n">
+      <c r="AE30" s="54" t="n">
         <v>0.2637725644421136</v>
       </c>
-      <c r="AF30" s="52" t="n">
+      <c r="AF30" s="49" t="n">
         <v>-0.003838620122333336</v>
       </c>
-      <c r="AG30" s="52" t="n">
+      <c r="AG30" s="49" t="n">
         <v>-0.003674450904061364</v>
       </c>
       <c r="AH30" s="13" t="n">
         <v>-0.02263467781025143</v>
       </c>
-      <c r="AI30" s="35" t="n">
+      <c r="AI30" s="37" t="n">
         <v>0.07178577265369007</v>
       </c>
-      <c r="AJ30" s="24" t="n">
+      <c r="AJ30" s="25" t="n">
         <v>-0.04297445111353127</v>
       </c>
       <c r="AK30" s="13" t="n">
@@ -4514,43 +4514,43 @@
           <t>social</t>
         </is>
       </c>
-      <c r="B31" s="25" t="n">
+      <c r="B31" s="26" t="n">
         <v>0.04797221814471418</v>
       </c>
       <c r="C31" s="13" t="n">
         <v>-0.02793190806350306</v>
       </c>
-      <c r="D31" s="27" t="n">
+      <c r="D31" s="28" t="n">
         <v>-0.02037611693636415</v>
       </c>
-      <c r="E31" s="29" t="n">
+      <c r="E31" s="30" t="n">
         <v>-0.01405167113222911</v>
       </c>
       <c r="F31" s="20" t="n">
         <v>-0.03467611850237754</v>
       </c>
-      <c r="G31" s="37" t="n">
+      <c r="G31" s="39" t="n">
         <v>0.01707077062479034</v>
       </c>
       <c r="H31" s="10" t="n">
         <v>0.02723908554549078</v>
       </c>
-      <c r="I31" s="25" t="n">
+      <c r="I31" s="26" t="n">
         <v>0.04734910674411908</v>
       </c>
       <c r="J31" s="21" t="n">
         <v>0.1108641061348102</v>
       </c>
-      <c r="K31" s="34" t="n">
+      <c r="K31" s="36" t="n">
         <v>0.0584558224163066</v>
       </c>
-      <c r="L31" s="39" t="n">
+      <c r="L31" s="41" t="n">
         <v>0.04081831992777412</v>
       </c>
-      <c r="M31" s="39" t="n">
+      <c r="M31" s="41" t="n">
         <v>0.03616981029248822</v>
       </c>
-      <c r="N31" s="23" t="n">
+      <c r="N31" s="24" t="n">
         <v>-0.0572736560631114</v>
       </c>
       <c r="O31" s="17" t="n">
@@ -4559,19 +4559,19 @@
       <c r="P31" s="19" t="n">
         <v>-0.1162947534753732</v>
       </c>
-      <c r="Q31" s="47" t="n">
-        <v>0.09691601621714321</v>
-      </c>
-      <c r="R31" s="46" t="n">
+      <c r="Q31" s="37" t="n">
+        <v>0.07095485152494438</v>
+      </c>
+      <c r="R31" s="44" t="n">
         <v>0.1374081765166171</v>
       </c>
       <c r="S31" s="17" t="n">
         <v>0.006702918525065326</v>
       </c>
-      <c r="T31" s="41" t="n">
+      <c r="T31" s="34" t="n">
         <v>-0.06967354729688879</v>
       </c>
-      <c r="U31" s="40" t="n">
+      <c r="U31" s="38" t="n">
         <v>0.08154688150314948</v>
       </c>
       <c r="V31" s="10" t="n">
@@ -4580,25 +4580,25 @@
       <c r="W31" s="21" t="n">
         <v>0.1143762102827375</v>
       </c>
-      <c r="X31" s="25" t="n">
+      <c r="X31" s="26" t="n">
         <v>0.04343357328605167</v>
       </c>
-      <c r="Y31" s="37" t="n">
+      <c r="Y31" s="39" t="n">
         <v>0.01625742087394261</v>
       </c>
-      <c r="Z31" s="41" t="n">
-        <v>-0.07136032259382645</v>
-      </c>
-      <c r="AA31" s="26" t="n">
-        <v>-0.09568870870808949</v>
-      </c>
-      <c r="AB31" s="18" t="n">
-        <v>-0.08712105501550835</v>
-      </c>
-      <c r="AC31" s="37" t="n">
+      <c r="Z31" s="18" t="n">
+        <v>-0.09048155142273186</v>
+      </c>
+      <c r="AA31" s="57" t="n">
+        <v>-0.1027615168414684</v>
+      </c>
+      <c r="AB31" s="19" t="n">
+        <v>-0.1208968520174939</v>
+      </c>
+      <c r="AC31" s="39" t="n">
         <v>0.02047641202610278</v>
       </c>
-      <c r="AD31" s="59" t="n">
+      <c r="AD31" s="54" t="n">
         <v>0.2637725644421136</v>
       </c>
       <c r="AE31" s="2" t="n">
@@ -4607,7 +4607,7 @@
       <c r="AF31" s="10" t="n">
         <v>0.02261352685974529</v>
       </c>
-      <c r="AG31" s="52" t="n">
+      <c r="AG31" s="49" t="n">
         <v>-0.005176532842838358</v>
       </c>
       <c r="AH31" s="20" t="n">
@@ -4616,7 +4616,7 @@
       <c r="AI31" s="13" t="n">
         <v>-0.02765021858508041</v>
       </c>
-      <c r="AJ31" s="52" t="n">
+      <c r="AJ31" s="49" t="n">
         <v>-0.002178182208967263</v>
       </c>
       <c r="AK31" s="6" t="n">
@@ -4629,7 +4629,7 @@
           <t>Pedu</t>
         </is>
       </c>
-      <c r="B32" s="26" t="n">
+      <c r="B32" s="27" t="n">
         <v>-0.09560278246831845</v>
       </c>
       <c r="C32" s="10" t="n">
@@ -4638,55 +4638,55 @@
       <c r="D32" s="13" t="n">
         <v>-0.02740102267093793</v>
       </c>
-      <c r="E32" s="43" t="n">
+      <c r="E32" s="42" t="n">
         <v>0.1075716329104425</v>
       </c>
-      <c r="F32" s="27" t="n">
+      <c r="F32" s="28" t="n">
         <v>-0.01696718787009348</v>
       </c>
       <c r="G32" s="11" t="n">
         <v>0.07393831374257574</v>
       </c>
-      <c r="H32" s="42" t="n">
+      <c r="H32" s="57" t="n">
         <v>-0.1067386102531363</v>
       </c>
-      <c r="I32" s="64" t="n">
+      <c r="I32" s="63" t="n">
         <v>-0.276242871798599</v>
       </c>
       <c r="J32" s="8" t="n">
         <v>0.1245510400878396</v>
       </c>
-      <c r="K32" s="32" t="n">
+      <c r="K32" s="33" t="n">
         <v>-0.1581663603410207</v>
       </c>
-      <c r="L32" s="57" t="n">
+      <c r="L32" s="55" t="n">
         <v>-0.2062133349484696</v>
       </c>
-      <c r="M32" s="29" t="n">
+      <c r="M32" s="30" t="n">
         <v>-0.008161539257725055</v>
       </c>
-      <c r="N32" s="35" t="n">
+      <c r="N32" s="37" t="n">
         <v>0.06770601831952149</v>
       </c>
-      <c r="O32" s="64" t="n">
+      <c r="O32" s="63" t="n">
         <v>-0.2743949187969947</v>
       </c>
       <c r="P32" s="11" t="n">
         <v>0.07259273194384337</v>
       </c>
-      <c r="Q32" s="81" t="n">
-        <v>-0.2148110793581545</v>
-      </c>
-      <c r="R32" s="67" t="n">
+      <c r="Q32" s="84" t="n">
+        <v>-0.2235208357510258</v>
+      </c>
+      <c r="R32" s="66" t="n">
         <v>0.1363604787003192</v>
       </c>
-      <c r="S32" s="67" t="n">
+      <c r="S32" s="66" t="n">
         <v>0.1350478230337964</v>
       </c>
-      <c r="T32" s="82" t="n">
+      <c r="T32" s="86" t="n">
         <v>0.2238423685594092</v>
       </c>
-      <c r="U32" s="59" t="n">
+      <c r="U32" s="54" t="n">
         <v>0.2644092689757016</v>
       </c>
       <c r="V32" s="5" t="n">
@@ -4701,19 +4701,19 @@
       <c r="Y32" s="10" t="n">
         <v>0.02561012190086807</v>
       </c>
-      <c r="Z32" s="85" t="n">
-        <v>0.29371576640681</v>
-      </c>
-      <c r="AA32" s="88" t="n">
-        <v>0.274537913533048</v>
-      </c>
-      <c r="AB32" s="90" t="n">
-        <v>0.3000697957490761</v>
+      <c r="Z32" s="77" t="n">
+        <v>0.2809121338605862</v>
+      </c>
+      <c r="AA32" s="79" t="n">
+        <v>0.2749580427497337</v>
+      </c>
+      <c r="AB32" s="78" t="n">
+        <v>0.2679933147971113</v>
       </c>
       <c r="AC32" s="14" t="n">
         <v>0.144500795672003</v>
       </c>
-      <c r="AD32" s="52" t="n">
+      <c r="AD32" s="49" t="n">
         <v>-0.003838620122333336</v>
       </c>
       <c r="AE32" s="10" t="n">
@@ -4722,19 +4722,19 @@
       <c r="AF32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AG32" s="92" t="n">
+      <c r="AG32" s="90" t="n">
         <v>0.4859898082704256</v>
       </c>
-      <c r="AH32" s="65" t="n">
+      <c r="AH32" s="64" t="n">
         <v>0.2558227947735972</v>
       </c>
-      <c r="AI32" s="40" t="n">
+      <c r="AI32" s="38" t="n">
         <v>0.08108398775714964</v>
       </c>
-      <c r="AJ32" s="63" t="n">
+      <c r="AJ32" s="91" t="n">
         <v>-0.3064602450550377</v>
       </c>
-      <c r="AK32" s="86" t="n">
+      <c r="AK32" s="92" t="n">
         <v>-0.2370614327688695</v>
       </c>
     </row>
@@ -4744,7 +4744,7 @@
           <t>Pjob_teacher</t>
         </is>
       </c>
-      <c r="B33" s="27" t="n">
+      <c r="B33" s="28" t="n">
         <v>-0.01817384877830079</v>
       </c>
       <c r="C33" s="12" t="n">
@@ -4756,22 +4756,22 @@
       <c r="E33" s="20" t="n">
         <v>-0.03152440302282658</v>
       </c>
-      <c r="F33" s="23" t="n">
+      <c r="F33" s="24" t="n">
         <v>-0.05206685197948083</v>
       </c>
-      <c r="G33" s="40" t="n">
+      <c r="G33" s="38" t="n">
         <v>0.08645693573987999</v>
       </c>
-      <c r="H33" s="41" t="n">
+      <c r="H33" s="34" t="n">
         <v>-0.07045152408337318</v>
       </c>
-      <c r="I33" s="28" t="n">
+      <c r="I33" s="29" t="n">
         <v>-0.1270536983237224</v>
       </c>
-      <c r="J33" s="43" t="n">
+      <c r="J33" s="42" t="n">
         <v>0.105381220389402</v>
       </c>
-      <c r="K33" s="33" t="n">
+      <c r="K33" s="35" t="n">
         <v>-0.08131568231599963</v>
       </c>
       <c r="L33" s="15" t="n">
@@ -4780,19 +4780,19 @@
       <c r="M33" s="17" t="n">
         <v>0.004307453948167556</v>
       </c>
-      <c r="N33" s="52" t="n">
+      <c r="N33" s="49" t="n">
         <v>-0.003192866602291579</v>
       </c>
       <c r="O33" s="18" t="n">
         <v>-0.08929120988889643</v>
       </c>
-      <c r="P33" s="25" t="n">
+      <c r="P33" s="26" t="n">
         <v>0.0446906966887278</v>
       </c>
-      <c r="Q33" s="22" t="n">
-        <v>-0.1400140215451092</v>
-      </c>
-      <c r="R33" s="40" t="n">
+      <c r="Q33" s="59" t="n">
+        <v>-0.1515735378599136</v>
+      </c>
+      <c r="R33" s="38" t="n">
         <v>0.08608946153940916</v>
       </c>
       <c r="S33" s="11" t="n">
@@ -4801,52 +4801,52 @@
       <c r="T33" s="8" t="n">
         <v>0.1264957919329332</v>
       </c>
-      <c r="U33" s="43" t="n">
+      <c r="U33" s="42" t="n">
         <v>0.1015871141725804</v>
       </c>
-      <c r="V33" s="27" t="n">
+      <c r="V33" s="28" t="n">
         <v>-0.01923984987382274</v>
       </c>
       <c r="W33" s="20" t="n">
         <v>-0.02908581058894899</v>
       </c>
-      <c r="X33" s="39" t="n">
+      <c r="X33" s="41" t="n">
         <v>0.03846350926731087</v>
       </c>
       <c r="Y33" s="9" t="n">
         <v>-0.06279569438677594</v>
       </c>
-      <c r="Z33" s="16" t="n">
-        <v>0.1547813915811686</v>
-      </c>
-      <c r="AA33" s="44" t="n">
-        <v>0.168945090095275</v>
-      </c>
-      <c r="AB33" s="91" t="n">
-        <v>0.1828349566727963</v>
-      </c>
-      <c r="AC33" s="39" t="n">
+      <c r="Z33" s="46" t="n">
+        <v>0.1619876889170528</v>
+      </c>
+      <c r="AA33" s="43" t="n">
+        <v>0.1688381842253357</v>
+      </c>
+      <c r="AB33" s="43" t="n">
+        <v>0.1707083889158999</v>
+      </c>
+      <c r="AC33" s="41" t="n">
         <v>0.03829050473835216</v>
       </c>
-      <c r="AD33" s="52" t="n">
+      <c r="AD33" s="49" t="n">
         <v>-0.003674450904061364</v>
       </c>
-      <c r="AE33" s="52" t="n">
+      <c r="AE33" s="49" t="n">
         <v>-0.005176532842838358</v>
       </c>
-      <c r="AF33" s="92" t="n">
+      <c r="AF33" s="90" t="n">
         <v>0.4859898082704256</v>
       </c>
       <c r="AG33" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AH33" s="27" t="n">
+      <c r="AH33" s="28" t="n">
         <v>-0.01555600622409853</v>
       </c>
       <c r="AI33" s="9" t="n">
         <v>-0.06181902440831906</v>
       </c>
-      <c r="AJ33" s="30" t="n">
+      <c r="AJ33" s="31" t="n">
         <v>-0.1908746871586492</v>
       </c>
       <c r="AK33" s="62" t="n">
@@ -4859,53 +4859,53 @@
           <t>Pjob_health</t>
         </is>
       </c>
-      <c r="B34" s="28" t="n">
+      <c r="B34" s="29" t="n">
         <v>-0.1264684737893425</v>
       </c>
-      <c r="C34" s="27" t="n">
+      <c r="C34" s="28" t="n">
         <v>-0.0210207540157463</v>
       </c>
-      <c r="D34" s="37" t="n">
+      <c r="D34" s="39" t="n">
         <v>0.0151959161384113</v>
       </c>
-      <c r="E34" s="48" t="n">
+      <c r="E34" s="46" t="n">
         <v>0.1613113391285409</v>
       </c>
       <c r="F34" s="7" t="n">
         <v>0.05581713771818508</v>
       </c>
-      <c r="G34" s="27" t="n">
+      <c r="G34" s="28" t="n">
         <v>-0.01705216112101563</v>
       </c>
       <c r="H34" s="9" t="n">
         <v>-0.06293304611002375</v>
       </c>
-      <c r="I34" s="45" t="n">
+      <c r="I34" s="56" t="n">
         <v>-0.1147732979864583</v>
       </c>
-      <c r="J34" s="37" t="n">
+      <c r="J34" s="39" t="n">
         <v>0.01718061513435048</v>
       </c>
       <c r="K34" s="22" t="n">
         <v>-0.1405292093639937</v>
       </c>
-      <c r="L34" s="42" t="n">
+      <c r="L34" s="57" t="n">
         <v>-0.1049749932363574</v>
       </c>
       <c r="M34" s="13" t="n">
         <v>-0.02433468624352906</v>
       </c>
-      <c r="N34" s="29" t="n">
+      <c r="N34" s="30" t="n">
         <v>-0.01289462232274146</v>
       </c>
-      <c r="O34" s="51" t="n">
+      <c r="O34" s="48" t="n">
         <v>-0.1502311094436309</v>
       </c>
-      <c r="P34" s="39" t="n">
+      <c r="P34" s="41" t="n">
         <v>0.04242922873400441</v>
       </c>
       <c r="Q34" s="15" t="n">
-        <v>-0.07542134585067746</v>
+        <v>-0.07776832171478765</v>
       </c>
       <c r="R34" s="17" t="n">
         <v>0.003753141801559153</v>
@@ -4916,31 +4916,31 @@
       <c r="T34" s="21" t="n">
         <v>0.1120418183632924</v>
       </c>
-      <c r="U34" s="40" t="n">
+      <c r="U34" s="38" t="n">
         <v>0.08356366674561305</v>
       </c>
-      <c r="V34" s="52" t="n">
+      <c r="V34" s="49" t="n">
         <v>-0.004536805743258814</v>
       </c>
-      <c r="W34" s="23" t="n">
+      <c r="W34" s="24" t="n">
         <v>-0.055823074853563</v>
       </c>
-      <c r="X34" s="39" t="n">
+      <c r="X34" s="41" t="n">
         <v>0.03748378069880461</v>
       </c>
       <c r="Y34" s="15" t="n">
         <v>-0.07521518181262897</v>
       </c>
       <c r="Z34" s="8" t="n">
-        <v>0.125912763452469</v>
-      </c>
-      <c r="AA34" s="67" t="n">
-        <v>0.1304463663001627</v>
-      </c>
-      <c r="AB34" s="21" t="n">
-        <v>0.1119460744831105</v>
-      </c>
-      <c r="AC34" s="34" t="n">
+        <v>0.1272197163089809</v>
+      </c>
+      <c r="AA34" s="66" t="n">
+        <v>0.1308498657283547</v>
+      </c>
+      <c r="AB34" s="8" t="n">
+        <v>0.1241453813273792</v>
+      </c>
+      <c r="AC34" s="36" t="n">
         <v>0.06107619563186606</v>
       </c>
       <c r="AD34" s="13" t="n">
@@ -4949,22 +4949,22 @@
       <c r="AE34" s="20" t="n">
         <v>-0.03520097884111695</v>
       </c>
-      <c r="AF34" s="65" t="n">
+      <c r="AF34" s="64" t="n">
         <v>0.2558227947735972</v>
       </c>
-      <c r="AG34" s="27" t="n">
+      <c r="AG34" s="28" t="n">
         <v>-0.01555600622409853</v>
       </c>
       <c r="AH34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AI34" s="23" t="n">
+      <c r="AI34" s="24" t="n">
         <v>-0.05404357247382626</v>
       </c>
-      <c r="AJ34" s="32" t="n">
+      <c r="AJ34" s="33" t="n">
         <v>-0.1591440436376861</v>
       </c>
-      <c r="AK34" s="57" t="n">
+      <c r="AK34" s="55" t="n">
         <v>-0.2080797669907715</v>
       </c>
     </row>
@@ -4977,50 +4977,50 @@
       <c r="B35" s="20" t="n">
         <v>-0.03333265947025631</v>
       </c>
-      <c r="C35" s="27" t="n">
+      <c r="C35" s="28" t="n">
         <v>-0.01744573627338424</v>
       </c>
-      <c r="D35" s="25" t="n">
+      <c r="D35" s="26" t="n">
         <v>0.04710799131334617</v>
       </c>
       <c r="E35" s="10" t="n">
         <v>0.02192465588666748</v>
       </c>
-      <c r="F35" s="25" t="n">
+      <c r="F35" s="26" t="n">
         <v>0.05047449543282782</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01424268199081677</v>
       </c>
-      <c r="H35" s="45" t="n">
+      <c r="H35" s="56" t="n">
         <v>-0.1112124751618033</v>
       </c>
-      <c r="I35" s="29" t="n">
+      <c r="I35" s="30" t="n">
         <v>-0.01026020206401835</v>
       </c>
-      <c r="J35" s="35" t="n">
+      <c r="J35" s="37" t="n">
         <v>0.06684351026509223</v>
       </c>
       <c r="K35" s="13" t="n">
         <v>-0.02717958671797464</v>
       </c>
-      <c r="L35" s="24" t="n">
+      <c r="L35" s="25" t="n">
         <v>-0.04074270062549682</v>
       </c>
-      <c r="M35" s="52" t="n">
+      <c r="M35" s="49" t="n">
         <v>-0.003841505634023973</v>
       </c>
-      <c r="N35" s="24" t="n">
+      <c r="N35" s="25" t="n">
         <v>-0.04277356399930701</v>
       </c>
-      <c r="O35" s="23" t="n">
+      <c r="O35" s="24" t="n">
         <v>-0.05254274573769873</v>
       </c>
-      <c r="P35" s="39" t="n">
+      <c r="P35" s="41" t="n">
         <v>0.03860393270180213</v>
       </c>
-      <c r="Q35" s="17" t="n">
-        <v>0.007062045518288014</v>
+      <c r="Q35" s="12" t="n">
+        <v>0.02981912411750824</v>
       </c>
       <c r="R35" s="7" t="n">
         <v>0.05725607533327906</v>
@@ -5028,7 +5028,7 @@
       <c r="S35" s="12" t="n">
         <v>0.03327412504117477</v>
       </c>
-      <c r="T35" s="25" t="n">
+      <c r="T35" s="26" t="n">
         <v>0.04660275292594422</v>
       </c>
       <c r="U35" s="75" t="n">
@@ -5046,37 +5046,37 @@
       <c r="Y35" s="10" t="n">
         <v>0.0246057084065865</v>
       </c>
-      <c r="Z35" s="12" t="n">
-        <v>0.03198460713636557</v>
+      <c r="Z35" s="10" t="n">
+        <v>0.02729595069767032</v>
       </c>
       <c r="AA35" s="17" t="n">
-        <v>0.005072620504554957</v>
-      </c>
-      <c r="AB35" s="6" t="n">
-        <v>0.0103388509065759</v>
+        <v>0.002622338911806769</v>
+      </c>
+      <c r="AB35" s="49" t="n">
+        <v>-0.002640328128345366</v>
       </c>
       <c r="AC35" s="6" t="n">
         <v>0.01086439840626259</v>
       </c>
-      <c r="AD35" s="35" t="n">
+      <c r="AD35" s="37" t="n">
         <v>0.07178577265369007</v>
       </c>
       <c r="AE35" s="13" t="n">
         <v>-0.02765021858508041</v>
       </c>
-      <c r="AF35" s="40" t="n">
+      <c r="AF35" s="38" t="n">
         <v>0.08108398775714964</v>
       </c>
       <c r="AG35" s="9" t="n">
         <v>-0.06181902440831906</v>
       </c>
-      <c r="AH35" s="23" t="n">
+      <c r="AH35" s="24" t="n">
         <v>-0.05404357247382626</v>
       </c>
       <c r="AI35" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ35" s="60" t="n">
+      <c r="AJ35" s="59" t="n">
         <v>-0.1539198023372227</v>
       </c>
       <c r="AK35" s="93" t="n">
@@ -5095,64 +5095,64 @@
       <c r="C36" s="18" t="n">
         <v>-0.08835923546117749</v>
       </c>
-      <c r="D36" s="39" t="n">
+      <c r="D36" s="41" t="n">
         <v>0.04273256507369141</v>
       </c>
-      <c r="E36" s="49" t="n">
+      <c r="E36" s="23" t="n">
         <v>-0.1306610980530015</v>
       </c>
-      <c r="F36" s="27" t="n">
+      <c r="F36" s="28" t="n">
         <v>-0.01425354324863028</v>
       </c>
-      <c r="G36" s="29" t="n">
+      <c r="G36" s="30" t="n">
         <v>-0.01202092871017706</v>
       </c>
-      <c r="H36" s="25" t="n">
+      <c r="H36" s="26" t="n">
         <v>0.04604896282230257</v>
       </c>
-      <c r="I36" s="65" t="n">
+      <c r="I36" s="64" t="n">
         <v>0.2559773269516783</v>
       </c>
-      <c r="J36" s="51" t="n">
+      <c r="J36" s="48" t="n">
         <v>-0.1441975511772411</v>
       </c>
-      <c r="K36" s="40" t="n">
+      <c r="K36" s="38" t="n">
         <v>0.08576559249105575</v>
       </c>
-      <c r="L36" s="46" t="n">
+      <c r="L36" s="44" t="n">
         <v>0.1427934572524119</v>
       </c>
       <c r="M36" s="20" t="n">
         <v>-0.03345607323803858</v>
       </c>
-      <c r="N36" s="24" t="n">
+      <c r="N36" s="25" t="n">
         <v>-0.03590345753353828</v>
       </c>
-      <c r="O36" s="48" t="n">
+      <c r="O36" s="46" t="n">
         <v>0.1615120708016146</v>
       </c>
-      <c r="P36" s="23" t="n">
+      <c r="P36" s="24" t="n">
         <v>-0.05498548473279471</v>
       </c>
-      <c r="Q36" s="47" t="n">
-        <v>0.09904319334821962</v>
-      </c>
-      <c r="R36" s="23" t="n">
+      <c r="Q36" s="21" t="n">
+        <v>0.1151188178890828</v>
+      </c>
+      <c r="R36" s="24" t="n">
         <v>-0.05490181133562608</v>
       </c>
-      <c r="S36" s="29" t="n">
+      <c r="S36" s="30" t="n">
         <v>-0.009279049588416495</v>
       </c>
-      <c r="T36" s="60" t="n">
+      <c r="T36" s="59" t="n">
         <v>-0.1576216446748596</v>
       </c>
-      <c r="U36" s="64" t="n">
+      <c r="U36" s="63" t="n">
         <v>-0.2787590116121554</v>
       </c>
       <c r="V36" s="12" t="n">
         <v>0.03531090647095222</v>
       </c>
-      <c r="W36" s="24" t="n">
+      <c r="W36" s="25" t="n">
         <v>-0.04278020717381267</v>
       </c>
       <c r="X36" s="15" t="n">
@@ -5161,40 +5161,40 @@
       <c r="Y36" s="6" t="n">
         <v>0.008759778879732538</v>
       </c>
-      <c r="Z36" s="86" t="n">
-        <v>-0.2302562908179865</v>
-      </c>
-      <c r="AA36" s="32" t="n">
-        <v>-0.1643387363142367</v>
-      </c>
-      <c r="AB36" s="74" t="n">
-        <v>-0.1996413395862517</v>
-      </c>
-      <c r="AC36" s="52" t="n">
+      <c r="Z36" s="65" t="n">
+        <v>-0.217093195215605</v>
+      </c>
+      <c r="AA36" s="72" t="n">
+        <v>-0.1739073641261797</v>
+      </c>
+      <c r="AB36" s="72" t="n">
+        <v>-0.173057908705515</v>
+      </c>
+      <c r="AC36" s="49" t="n">
         <v>-0.004046648437217065</v>
       </c>
-      <c r="AD36" s="24" t="n">
+      <c r="AD36" s="25" t="n">
         <v>-0.04297445111353127</v>
       </c>
-      <c r="AE36" s="52" t="n">
+      <c r="AE36" s="49" t="n">
         <v>-0.002178182208967263</v>
       </c>
-      <c r="AF36" s="63" t="n">
+      <c r="AF36" s="91" t="n">
         <v>-0.3064602450550377</v>
       </c>
-      <c r="AG36" s="30" t="n">
+      <c r="AG36" s="31" t="n">
         <v>-0.1908746871586492</v>
       </c>
-      <c r="AH36" s="32" t="n">
+      <c r="AH36" s="33" t="n">
         <v>-0.1591440436376861</v>
       </c>
-      <c r="AI36" s="60" t="n">
+      <c r="AI36" s="59" t="n">
         <v>-0.1539198023372227</v>
       </c>
       <c r="AJ36" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AK36" s="28" t="n">
+      <c r="AK36" s="29" t="n">
         <v>-0.1292022505305548</v>
       </c>
     </row>
@@ -5204,10 +5204,10 @@
           <t>Pjob_other</t>
         </is>
       </c>
-      <c r="B37" s="29" t="n">
+      <c r="B37" s="30" t="n">
         <v>-0.01417044712107343</v>
       </c>
-      <c r="C37" s="35" t="n">
+      <c r="C37" s="37" t="n">
         <v>0.07008249538536045</v>
       </c>
       <c r="D37" s="18" t="n">
@@ -5225,34 +5225,34 @@
       <c r="H37" s="21" t="n">
         <v>0.1128818821178416</v>
       </c>
-      <c r="I37" s="37" t="n">
+      <c r="I37" s="39" t="n">
         <v>0.01754288012614439</v>
       </c>
       <c r="J37" s="20" t="n">
         <v>-0.03168225037445605</v>
       </c>
-      <c r="K37" s="25" t="n">
+      <c r="K37" s="26" t="n">
         <v>0.04946743230474661</v>
       </c>
-      <c r="L37" s="47" t="n">
+      <c r="L37" s="45" t="n">
         <v>0.09445518546852706</v>
       </c>
-      <c r="M37" s="52" t="n">
+      <c r="M37" s="49" t="n">
         <v>-0.003308673318226346</v>
       </c>
-      <c r="N37" s="36" t="n">
+      <c r="N37" s="51" t="n">
         <v>0.09006513555818021</v>
       </c>
       <c r="O37" s="75" t="n">
         <v>0.1189199279462365</v>
       </c>
-      <c r="P37" s="24" t="n">
+      <c r="P37" s="25" t="n">
         <v>-0.04184038526694481</v>
       </c>
-      <c r="Q37" s="37" t="n">
-        <v>0.01465198238588841</v>
-      </c>
-      <c r="R37" s="42" t="n">
+      <c r="Q37" s="10" t="n">
+        <v>0.02854718117035234</v>
+      </c>
+      <c r="R37" s="57" t="n">
         <v>-0.1045187982917145</v>
       </c>
       <c r="S37" s="15" t="n">
@@ -5261,13 +5261,13 @@
       <c r="T37" s="20" t="n">
         <v>-0.03380518633895199</v>
       </c>
-      <c r="U37" s="26" t="n">
+      <c r="U37" s="27" t="n">
         <v>-0.09625346250547648</v>
       </c>
       <c r="V37" s="6" t="n">
         <v>0.00920993166409329</v>
       </c>
-      <c r="W37" s="52" t="n">
+      <c r="W37" s="49" t="n">
         <v>-0.006300900497498593</v>
       </c>
       <c r="X37" s="7" t="n">
@@ -5276,16 +5276,16 @@
       <c r="Y37" s="7" t="n">
         <v>0.05752927122974854</v>
       </c>
-      <c r="Z37" s="5" t="n">
-        <v>-0.05005482816632684</v>
-      </c>
-      <c r="AA37" s="24" t="n">
-        <v>-0.03594021577213144</v>
+      <c r="Z37" s="34" t="n">
+        <v>-0.06636024271693847</v>
+      </c>
+      <c r="AA37" s="9" t="n">
+        <v>-0.05742273517956065</v>
       </c>
       <c r="AB37" s="24" t="n">
-        <v>-0.03863735724104476</v>
-      </c>
-      <c r="AC37" s="23" t="n">
+        <v>-0.05532829139660413</v>
+      </c>
+      <c r="AC37" s="24" t="n">
         <v>-0.05693155156280745</v>
       </c>
       <c r="AD37" s="13" t="n">
@@ -5294,19 +5294,19 @@
       <c r="AE37" s="6" t="n">
         <v>0.01170134254502328</v>
       </c>
-      <c r="AF37" s="86" t="n">
+      <c r="AF37" s="92" t="n">
         <v>-0.2370614327688695</v>
       </c>
       <c r="AG37" s="62" t="n">
         <v>-0.2724475257185879</v>
       </c>
-      <c r="AH37" s="57" t="n">
+      <c r="AH37" s="55" t="n">
         <v>-0.2080797669907715</v>
       </c>
       <c r="AI37" s="93" t="n">
         <v>-0.4515669144835563</v>
       </c>
-      <c r="AJ37" s="28" t="n">
+      <c r="AJ37" s="29" t="n">
         <v>-0.1292022505305548</v>
       </c>
       <c r="AK37" s="2" t="n">
